--- a/Symmetry Code (Final)/Graphs and Images.xlsx
+++ b/Symmetry Code (Final)/Graphs and Images.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Histograms" sheetId="1" r:id="rId1"/>
@@ -266,7 +266,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -275,12 +276,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,6 +444,158 @@
         <a:xfrm>
           <a:off x="1" y="18097501"/>
           <a:ext cx="10515600" cy="5410254"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>416700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>71426</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10522324" y="1378323"/>
+          <a:ext cx="5761905" cy="2323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>212911</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>133164</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>107841</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10634382" y="8023412"/>
+          <a:ext cx="5971429" cy="2371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>146076</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>40605</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10847294" y="14612470"/>
+          <a:ext cx="5771429" cy="2371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>56031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>280148</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>22997</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10914530" y="20226619"/>
+          <a:ext cx="8258736" cy="3194260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3243,8 +3395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3598,2646 +3750,2881 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT201"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AM1" sqref="AM1:AT3"/>
+    <sheetView topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="9.140625" style="1"/>
     <col min="9" max="10" width="9.140625" style="1" customWidth="1"/>
-    <col min="11" max="18" width="9.140625" style="8"/>
+    <col min="11" max="18" width="9.140625" style="5"/>
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="K1" s="4" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="K1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="T1" s="5" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="T1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AC1" s="5" t="s">
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AC1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AM1" s="5" t="s">
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AM1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="T2" s="5" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="T2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AC2" s="5" t="s">
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AC2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AM2" s="5" t="s">
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AM2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="K3" s="6" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="K3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="T3" s="5" t="s">
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="T3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AC3" s="5" t="s">
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AC3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AM3" s="5" t="s">
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AM3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="AM26" s="5" t="s">
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="AM26" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN26" s="5"/>
-      <c r="AO26" s="5"/>
-      <c r="AP26" s="5"/>
-      <c r="AQ26" s="5"/>
-      <c r="AR26" s="5"/>
-      <c r="AS26" s="5"/>
-      <c r="AT26" s="5"/>
+      <c r="AN26" s="6"/>
+      <c r="AO26" s="6"/>
+      <c r="AP26" s="6"/>
+      <c r="AQ26" s="6"/>
+      <c r="AR26" s="6"/>
+      <c r="AS26" s="6"/>
+      <c r="AT26" s="6"/>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="AM27" s="5" t="s">
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="AM27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AN27" s="5"/>
-      <c r="AO27" s="5"/>
-      <c r="AP27" s="5"/>
-      <c r="AQ27" s="5"/>
-      <c r="AR27" s="5"/>
-      <c r="AS27" s="5"/>
-      <c r="AT27" s="5"/>
+      <c r="AN27" s="6"/>
+      <c r="AO27" s="6"/>
+      <c r="AP27" s="6"/>
+      <c r="AQ27" s="6"/>
+      <c r="AR27" s="6"/>
+      <c r="AS27" s="6"/>
+      <c r="AT27" s="6"/>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="AM28" s="5" t="s">
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="AM28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AN28" s="5"/>
-      <c r="AO28" s="5"/>
-      <c r="AP28" s="5"/>
-      <c r="AQ28" s="5"/>
-      <c r="AR28" s="5"/>
-      <c r="AS28" s="5"/>
-      <c r="AT28" s="5"/>
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="6"/>
+      <c r="AP28" s="6"/>
+      <c r="AQ28" s="6"/>
+      <c r="AR28" s="6"/>
+      <c r="AS28" s="6"/>
+      <c r="AT28" s="6"/>
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="T29" s="5" t="s">
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="T29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AC29" s="5" t="s">
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AC29" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="T30" s="5" t="s">
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="T30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AC30" s="5" t="s">
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AC30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="5"/>
-      <c r="AG30" s="5"/>
-      <c r="AH30" s="5"/>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="T31" s="5" t="s">
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="T31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AC31" s="5" t="s">
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AC31" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="5"/>
-      <c r="AF31" s="5"/>
-      <c r="AG31" s="5"/>
-      <c r="AH31" s="5"/>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="AM40" s="5" t="s">
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="AM40" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN40" s="5"/>
-      <c r="AO40" s="5"/>
-      <c r="AP40" s="5"/>
-      <c r="AQ40" s="5"/>
-      <c r="AR40" s="5"/>
-      <c r="AS40" s="5"/>
-      <c r="AT40" s="5"/>
+      <c r="AN40" s="6"/>
+      <c r="AO40" s="6"/>
+      <c r="AP40" s="6"/>
+      <c r="AQ40" s="6"/>
+      <c r="AR40" s="6"/>
+      <c r="AS40" s="6"/>
+      <c r="AT40" s="6"/>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="AM41" s="5" t="s">
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="AM41" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AN41" s="5"/>
-      <c r="AO41" s="5"/>
-      <c r="AP41" s="5"/>
-      <c r="AQ41" s="5"/>
-      <c r="AR41" s="5"/>
-      <c r="AS41" s="5"/>
-      <c r="AT41" s="5"/>
+      <c r="AN41" s="6"/>
+      <c r="AO41" s="6"/>
+      <c r="AP41" s="6"/>
+      <c r="AQ41" s="6"/>
+      <c r="AR41" s="6"/>
+      <c r="AS41" s="6"/>
+      <c r="AT41" s="6"/>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="AM42" s="5" t="s">
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="AM42" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AN42" s="5"/>
-      <c r="AO42" s="5"/>
-      <c r="AP42" s="5"/>
-      <c r="AQ42" s="5"/>
-      <c r="AR42" s="5"/>
-      <c r="AS42" s="5"/>
-      <c r="AT42" s="5"/>
+      <c r="AN42" s="6"/>
+      <c r="AO42" s="6"/>
+      <c r="AP42" s="6"/>
+      <c r="AQ42" s="6"/>
+      <c r="AR42" s="6"/>
+      <c r="AS42" s="6"/>
+      <c r="AT42" s="6"/>
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
     </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
     </row>
     <row r="48" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
     </row>
     <row r="49" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
     </row>
     <row r="50" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
     </row>
     <row r="51" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
     </row>
     <row r="52" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
     </row>
     <row r="53" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
     </row>
     <row r="54" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K54" s="6" t="s">
+      <c r="K54" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
     </row>
     <row r="55" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
     </row>
     <row r="56" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="AC56" s="5" t="s">
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="AC56" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AD56" s="5"/>
-      <c r="AE56" s="5"/>
-      <c r="AF56" s="5"/>
-      <c r="AG56" s="5"/>
-      <c r="AH56" s="5"/>
-      <c r="AI56" s="5"/>
-      <c r="AJ56" s="5"/>
+      <c r="AD56" s="6"/>
+      <c r="AE56" s="6"/>
+      <c r="AF56" s="6"/>
+      <c r="AG56" s="6"/>
+      <c r="AH56" s="6"/>
+      <c r="AI56" s="6"/>
+      <c r="AJ56" s="6"/>
     </row>
     <row r="57" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="T57" s="5" t="s">
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="T57" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
-      <c r="AA57" s="5"/>
-      <c r="AC57" s="5" t="s">
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+      <c r="AA57" s="6"/>
+      <c r="AC57" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AD57" s="5"/>
-      <c r="AE57" s="5"/>
-      <c r="AF57" s="5"/>
-      <c r="AG57" s="5"/>
-      <c r="AH57" s="5"/>
-      <c r="AI57" s="5"/>
-      <c r="AJ57" s="5"/>
+      <c r="AD57" s="6"/>
+      <c r="AE57" s="6"/>
+      <c r="AF57" s="6"/>
+      <c r="AG57" s="6"/>
+      <c r="AH57" s="6"/>
+      <c r="AI57" s="6"/>
+      <c r="AJ57" s="6"/>
     </row>
     <row r="58" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="T58" s="5" t="s">
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="T58" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
-      <c r="AA58" s="5"/>
-      <c r="AC58" s="5" t="s">
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+      <c r="AA58" s="6"/>
+      <c r="AC58" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AD58" s="5"/>
-      <c r="AE58" s="5"/>
-      <c r="AF58" s="5"/>
-      <c r="AG58" s="5"/>
-      <c r="AH58" s="5"/>
-      <c r="AI58" s="5"/>
-      <c r="AJ58" s="5"/>
+      <c r="AD58" s="6"/>
+      <c r="AE58" s="6"/>
+      <c r="AF58" s="6"/>
+      <c r="AG58" s="6"/>
+      <c r="AH58" s="6"/>
+      <c r="AI58" s="6"/>
+      <c r="AJ58" s="6"/>
     </row>
     <row r="59" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="T59" s="5" t="s">
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="T59" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-      <c r="AA59" s="5"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+      <c r="AA59" s="6"/>
     </row>
     <row r="60" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
     </row>
     <row r="61" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
     </row>
     <row r="62" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
     </row>
     <row r="63" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
     </row>
     <row r="64" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
-      <c r="R76" s="6"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="6"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K79" s="6" t="s">
+      <c r="K79" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
-      <c r="R79" s="6"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="6"/>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="6"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
     </row>
     <row r="81" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="6"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
     </row>
     <row r="82" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
     </row>
     <row r="83" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="6"/>
-      <c r="AC83" s="5" t="s">
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="AC83" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AD83" s="5"/>
-      <c r="AE83" s="5"/>
-      <c r="AF83" s="5"/>
-      <c r="AG83" s="5"/>
-      <c r="AH83" s="5"/>
-      <c r="AI83" s="5"/>
-      <c r="AJ83" s="5"/>
+      <c r="AD83" s="6"/>
+      <c r="AE83" s="6"/>
+      <c r="AF83" s="6"/>
+      <c r="AG83" s="6"/>
+      <c r="AH83" s="6"/>
+      <c r="AI83" s="6"/>
+      <c r="AJ83" s="6"/>
     </row>
     <row r="84" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="6"/>
-      <c r="R84" s="6"/>
-      <c r="AC84" s="5" t="s">
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="AC84" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AD84" s="5"/>
-      <c r="AE84" s="5"/>
-      <c r="AF84" s="5"/>
-      <c r="AG84" s="5"/>
-      <c r="AH84" s="5"/>
-      <c r="AI84" s="5"/>
-      <c r="AJ84" s="5"/>
+      <c r="AD84" s="6"/>
+      <c r="AE84" s="6"/>
+      <c r="AF84" s="6"/>
+      <c r="AG84" s="6"/>
+      <c r="AH84" s="6"/>
+      <c r="AI84" s="6"/>
+      <c r="AJ84" s="6"/>
     </row>
     <row r="85" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6"/>
-      <c r="T85" s="5" t="s">
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="T85" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U85" s="5"/>
-      <c r="V85" s="5"/>
-      <c r="W85" s="5"/>
-      <c r="X85" s="5"/>
-      <c r="Y85" s="5"/>
-      <c r="Z85" s="5"/>
-      <c r="AA85" s="5"/>
-      <c r="AC85" s="5" t="s">
+      <c r="U85" s="6"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+      <c r="X85" s="6"/>
+      <c r="Y85" s="6"/>
+      <c r="Z85" s="6"/>
+      <c r="AA85" s="6"/>
+      <c r="AC85" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AD85" s="5"/>
-      <c r="AE85" s="5"/>
-      <c r="AF85" s="5"/>
-      <c r="AG85" s="5"/>
-      <c r="AH85" s="5"/>
-      <c r="AI85" s="5"/>
-      <c r="AJ85" s="5"/>
+      <c r="AD85" s="6"/>
+      <c r="AE85" s="6"/>
+      <c r="AF85" s="6"/>
+      <c r="AG85" s="6"/>
+      <c r="AH85" s="6"/>
+      <c r="AI85" s="6"/>
+      <c r="AJ85" s="6"/>
     </row>
     <row r="86" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-      <c r="T86" s="5" t="s">
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="T86" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="U86" s="5"/>
-      <c r="V86" s="5"/>
-      <c r="W86" s="5"/>
-      <c r="X86" s="5"/>
-      <c r="Y86" s="5"/>
-      <c r="Z86" s="5"/>
-      <c r="AA86" s="5"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6"/>
+      <c r="Z86" s="6"/>
+      <c r="AA86" s="6"/>
     </row>
     <row r="87" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
-      <c r="R87" s="6"/>
-      <c r="T87" s="5" t="s">
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="T87" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U87" s="5"/>
-      <c r="V87" s="5"/>
-      <c r="W87" s="5"/>
-      <c r="X87" s="5"/>
-      <c r="Y87" s="5"/>
-      <c r="Z87" s="5"/>
-      <c r="AA87" s="5"/>
+      <c r="U87" s="6"/>
+      <c r="V87" s="6"/>
+      <c r="W87" s="6"/>
+      <c r="X87" s="6"/>
+      <c r="Y87" s="6"/>
+      <c r="Z87" s="6"/>
+      <c r="AA87" s="6"/>
     </row>
     <row r="88" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="6"/>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="6"/>
-      <c r="R88" s="6"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
     </row>
     <row r="89" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="6"/>
-      <c r="P89" s="6"/>
-      <c r="Q89" s="6"/>
-      <c r="R89" s="6"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
     </row>
     <row r="90" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="6"/>
-      <c r="Q90" s="6"/>
-      <c r="R90" s="6"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7"/>
     </row>
     <row r="91" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="6"/>
-      <c r="O91" s="6"/>
-      <c r="P91" s="6"/>
-      <c r="Q91" s="6"/>
-      <c r="R91" s="6"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7"/>
     </row>
     <row r="92" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="6"/>
-      <c r="Q92" s="6"/>
-      <c r="R92" s="6"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
     </row>
     <row r="93" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="6"/>
-      <c r="O93" s="6"/>
-      <c r="P93" s="6"/>
-      <c r="Q93" s="6"/>
-      <c r="R93" s="6"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
     </row>
     <row r="94" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-      <c r="M94" s="6"/>
-      <c r="N94" s="6"/>
-      <c r="O94" s="6"/>
-      <c r="P94" s="6"/>
-      <c r="Q94" s="6"/>
-      <c r="R94" s="6"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
     </row>
     <row r="95" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
-      <c r="O95" s="6"/>
-      <c r="P95" s="6"/>
-      <c r="Q95" s="6"/>
-      <c r="R95" s="6"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
     </row>
     <row r="96" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="6"/>
-      <c r="O96" s="6"/>
-      <c r="P96" s="6"/>
-      <c r="Q96" s="6"/>
-      <c r="R96" s="6"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
     </row>
     <row r="97" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-      <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="6"/>
-      <c r="P97" s="6"/>
-      <c r="Q97" s="6"/>
-      <c r="R97" s="6"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
-      <c r="M98" s="6"/>
-      <c r="N98" s="6"/>
-      <c r="O98" s="6"/>
-      <c r="P98" s="6"/>
-      <c r="Q98" s="6"/>
-      <c r="R98" s="6"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7"/>
+      <c r="R98" s="7"/>
     </row>
     <row r="99" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
-      <c r="M99" s="6"/>
-      <c r="N99" s="6"/>
-      <c r="O99" s="6"/>
-      <c r="P99" s="6"/>
-      <c r="Q99" s="6"/>
-      <c r="R99" s="6"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7"/>
     </row>
     <row r="100" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
-      <c r="M100" s="6"/>
-      <c r="N100" s="6"/>
-      <c r="O100" s="6"/>
-      <c r="P100" s="6"/>
-      <c r="Q100" s="6"/>
-      <c r="R100" s="6"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
-      <c r="M101" s="6"/>
-      <c r="N101" s="6"/>
-      <c r="O101" s="6"/>
-      <c r="P101" s="6"/>
-      <c r="Q101" s="6"/>
-      <c r="R101" s="6"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7"/>
     </row>
     <row r="102" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K102" s="6"/>
-      <c r="L102" s="6"/>
-      <c r="M102" s="6"/>
-      <c r="N102" s="6"/>
-      <c r="O102" s="6"/>
-      <c r="P102" s="6"/>
-      <c r="Q102" s="6"/>
-      <c r="R102" s="6"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="7"/>
+      <c r="R102" s="7"/>
     </row>
     <row r="103" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K103" s="6"/>
-      <c r="L103" s="6"/>
-      <c r="M103" s="6"/>
-      <c r="N103" s="6"/>
-      <c r="O103" s="6"/>
-      <c r="P103" s="6"/>
-      <c r="Q103" s="6"/>
-      <c r="R103" s="6"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7"/>
     </row>
     <row r="104" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K104" s="6"/>
-      <c r="L104" s="6"/>
-      <c r="M104" s="6"/>
-      <c r="N104" s="6"/>
-      <c r="O104" s="6"/>
-      <c r="P104" s="6"/>
-      <c r="Q104" s="6"/>
-      <c r="R104" s="6"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
+      <c r="P104" s="7"/>
+      <c r="Q104" s="7"/>
+      <c r="R104" s="7"/>
     </row>
     <row r="105" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K105" s="6"/>
-      <c r="L105" s="6"/>
-      <c r="M105" s="6"/>
-      <c r="N105" s="6"/>
-      <c r="O105" s="6"/>
-      <c r="P105" s="6"/>
-      <c r="Q105" s="6"/>
-      <c r="R105" s="6"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="7"/>
+      <c r="O105" s="7"/>
+      <c r="P105" s="7"/>
+      <c r="Q105" s="7"/>
+      <c r="R105" s="7"/>
     </row>
     <row r="106" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K106" s="6" t="s">
+      <c r="K106" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L106" s="6"/>
-      <c r="M106" s="6"/>
-      <c r="N106" s="6"/>
-      <c r="O106" s="6"/>
-      <c r="P106" s="6"/>
-      <c r="Q106" s="6"/>
-      <c r="R106" s="6"/>
+      <c r="L106" s="7"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="7"/>
+      <c r="O106" s="7"/>
+      <c r="P106" s="7"/>
+      <c r="Q106" s="7"/>
+      <c r="R106" s="7"/>
     </row>
     <row r="107" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K107" s="6"/>
-      <c r="L107" s="6"/>
-      <c r="M107" s="6"/>
-      <c r="N107" s="6"/>
-      <c r="O107" s="6"/>
-      <c r="P107" s="6"/>
-      <c r="Q107" s="6"/>
-      <c r="R107" s="6"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="7"/>
+      <c r="O107" s="7"/>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="7"/>
+      <c r="R107" s="7"/>
     </row>
     <row r="108" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K108" s="6"/>
-      <c r="L108" s="6"/>
-      <c r="M108" s="6"/>
-      <c r="N108" s="6"/>
-      <c r="O108" s="6"/>
-      <c r="P108" s="6"/>
-      <c r="Q108" s="6"/>
-      <c r="R108" s="6"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="7"/>
+      <c r="O108" s="7"/>
+      <c r="P108" s="7"/>
+      <c r="Q108" s="7"/>
+      <c r="R108" s="7"/>
     </row>
     <row r="109" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K109" s="6"/>
-      <c r="L109" s="6"/>
-      <c r="M109" s="6"/>
-      <c r="N109" s="6"/>
-      <c r="O109" s="6"/>
-      <c r="P109" s="6"/>
-      <c r="Q109" s="6"/>
-      <c r="R109" s="6"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="7"/>
+      <c r="O109" s="7"/>
+      <c r="P109" s="7"/>
+      <c r="Q109" s="7"/>
+      <c r="R109" s="7"/>
     </row>
     <row r="110" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K110" s="6"/>
-      <c r="L110" s="6"/>
-      <c r="M110" s="6"/>
-      <c r="N110" s="6"/>
-      <c r="O110" s="6"/>
-      <c r="P110" s="6"/>
-      <c r="Q110" s="6"/>
-      <c r="R110" s="6"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="7"/>
+      <c r="O110" s="7"/>
+      <c r="P110" s="7"/>
+      <c r="Q110" s="7"/>
+      <c r="R110" s="7"/>
     </row>
     <row r="111" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K111" s="6"/>
-      <c r="L111" s="6"/>
-      <c r="M111" s="6"/>
-      <c r="N111" s="6"/>
-      <c r="O111" s="6"/>
-      <c r="P111" s="6"/>
-      <c r="Q111" s="6"/>
-      <c r="R111" s="6"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="7"/>
+      <c r="O111" s="7"/>
+      <c r="P111" s="7"/>
+      <c r="Q111" s="7"/>
+      <c r="R111" s="7"/>
     </row>
     <row r="112" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K112" s="6"/>
-      <c r="L112" s="6"/>
-      <c r="M112" s="6"/>
-      <c r="N112" s="6"/>
-      <c r="O112" s="6"/>
-      <c r="P112" s="6"/>
-      <c r="Q112" s="6"/>
-      <c r="R112" s="6"/>
-      <c r="T112" s="5" t="s">
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="7"/>
+      <c r="O112" s="7"/>
+      <c r="P112" s="7"/>
+      <c r="Q112" s="7"/>
+      <c r="R112" s="7"/>
+      <c r="T112" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="U112" s="5"/>
-      <c r="V112" s="5"/>
-      <c r="W112" s="5"/>
-      <c r="X112" s="5"/>
-      <c r="Y112" s="5"/>
-      <c r="Z112" s="5"/>
-      <c r="AA112" s="5"/>
-      <c r="AC112" s="5" t="s">
+      <c r="U112" s="6"/>
+      <c r="V112" s="6"/>
+      <c r="W112" s="6"/>
+      <c r="X112" s="6"/>
+      <c r="Y112" s="6"/>
+      <c r="Z112" s="6"/>
+      <c r="AA112" s="6"/>
+      <c r="AC112" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD112" s="5"/>
-      <c r="AE112" s="5"/>
-      <c r="AF112" s="5"/>
-      <c r="AG112" s="5"/>
-      <c r="AH112" s="5"/>
-      <c r="AI112" s="5"/>
-      <c r="AJ112" s="5"/>
+      <c r="AD112" s="6"/>
+      <c r="AE112" s="6"/>
+      <c r="AF112" s="6"/>
+      <c r="AG112" s="6"/>
+      <c r="AH112" s="6"/>
+      <c r="AI112" s="6"/>
+      <c r="AJ112" s="6"/>
     </row>
     <row r="113" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K113" s="6"/>
-      <c r="L113" s="6"/>
-      <c r="M113" s="6"/>
-      <c r="N113" s="6"/>
-      <c r="O113" s="6"/>
-      <c r="P113" s="6"/>
-      <c r="Q113" s="6"/>
-      <c r="R113" s="6"/>
-      <c r="T113" s="5" t="s">
+      <c r="K113" s="7"/>
+      <c r="L113" s="7"/>
+      <c r="M113" s="7"/>
+      <c r="N113" s="7"/>
+      <c r="O113" s="7"/>
+      <c r="P113" s="7"/>
+      <c r="Q113" s="7"/>
+      <c r="R113" s="7"/>
+      <c r="T113" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="U113" s="5"/>
-      <c r="V113" s="5"/>
-      <c r="W113" s="5"/>
-      <c r="X113" s="5"/>
-      <c r="Y113" s="5"/>
-      <c r="Z113" s="5"/>
-      <c r="AA113" s="5"/>
-      <c r="AC113" s="5" t="s">
+      <c r="U113" s="6"/>
+      <c r="V113" s="6"/>
+      <c r="W113" s="6"/>
+      <c r="X113" s="6"/>
+      <c r="Y113" s="6"/>
+      <c r="Z113" s="6"/>
+      <c r="AA113" s="6"/>
+      <c r="AC113" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AD113" s="5"/>
-      <c r="AE113" s="5"/>
-      <c r="AF113" s="5"/>
-      <c r="AG113" s="5"/>
-      <c r="AH113" s="5"/>
-      <c r="AI113" s="5"/>
-      <c r="AJ113" s="5"/>
+      <c r="AD113" s="6"/>
+      <c r="AE113" s="6"/>
+      <c r="AF113" s="6"/>
+      <c r="AG113" s="6"/>
+      <c r="AH113" s="6"/>
+      <c r="AI113" s="6"/>
+      <c r="AJ113" s="6"/>
     </row>
     <row r="114" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K114" s="6"/>
-      <c r="L114" s="6"/>
-      <c r="M114" s="6"/>
-      <c r="N114" s="6"/>
-      <c r="O114" s="6"/>
-      <c r="P114" s="6"/>
-      <c r="Q114" s="6"/>
-      <c r="R114" s="6"/>
-      <c r="T114" s="5" t="s">
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
+      <c r="M114" s="7"/>
+      <c r="N114" s="7"/>
+      <c r="O114" s="7"/>
+      <c r="P114" s="7"/>
+      <c r="Q114" s="7"/>
+      <c r="R114" s="7"/>
+      <c r="T114" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U114" s="5"/>
-      <c r="V114" s="5"/>
-      <c r="W114" s="5"/>
-      <c r="X114" s="5"/>
-      <c r="Y114" s="5"/>
-      <c r="Z114" s="5"/>
-      <c r="AA114" s="5"/>
-      <c r="AC114" s="5" t="s">
+      <c r="U114" s="6"/>
+      <c r="V114" s="6"/>
+      <c r="W114" s="6"/>
+      <c r="X114" s="6"/>
+      <c r="Y114" s="6"/>
+      <c r="Z114" s="6"/>
+      <c r="AA114" s="6"/>
+      <c r="AC114" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AD114" s="5"/>
-      <c r="AE114" s="5"/>
-      <c r="AF114" s="5"/>
-      <c r="AG114" s="5"/>
-      <c r="AH114" s="5"/>
-      <c r="AI114" s="5"/>
-      <c r="AJ114" s="5"/>
+      <c r="AD114" s="6"/>
+      <c r="AE114" s="6"/>
+      <c r="AF114" s="6"/>
+      <c r="AG114" s="6"/>
+      <c r="AH114" s="6"/>
+      <c r="AI114" s="6"/>
+      <c r="AJ114" s="6"/>
     </row>
     <row r="115" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K115" s="6"/>
-      <c r="L115" s="6"/>
-      <c r="M115" s="6"/>
-      <c r="N115" s="6"/>
-      <c r="O115" s="6"/>
-      <c r="P115" s="6"/>
-      <c r="Q115" s="6"/>
-      <c r="R115" s="6"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="7"/>
+      <c r="M115" s="7"/>
+      <c r="N115" s="7"/>
+      <c r="O115" s="7"/>
+      <c r="P115" s="7"/>
+      <c r="Q115" s="7"/>
+      <c r="R115" s="7"/>
     </row>
     <row r="116" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K116" s="6"/>
-      <c r="L116" s="6"/>
-      <c r="M116" s="6"/>
-      <c r="N116" s="6"/>
-      <c r="O116" s="6"/>
-      <c r="P116" s="6"/>
-      <c r="Q116" s="6"/>
-      <c r="R116" s="6"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
+      <c r="N116" s="7"/>
+      <c r="O116" s="7"/>
+      <c r="P116" s="7"/>
+      <c r="Q116" s="7"/>
+      <c r="R116" s="7"/>
     </row>
     <row r="117" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K117" s="6"/>
-      <c r="L117" s="6"/>
-      <c r="M117" s="6"/>
-      <c r="N117" s="6"/>
-      <c r="O117" s="6"/>
-      <c r="P117" s="6"/>
-      <c r="Q117" s="6"/>
-      <c r="R117" s="6"/>
+      <c r="K117" s="7"/>
+      <c r="L117" s="7"/>
+      <c r="M117" s="7"/>
+      <c r="N117" s="7"/>
+      <c r="O117" s="7"/>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="7"/>
+      <c r="R117" s="7"/>
     </row>
     <row r="118" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K118" s="6"/>
-      <c r="L118" s="6"/>
-      <c r="M118" s="6"/>
-      <c r="N118" s="6"/>
-      <c r="O118" s="6"/>
-      <c r="P118" s="6"/>
-      <c r="Q118" s="6"/>
-      <c r="R118" s="6"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="7"/>
+      <c r="O118" s="7"/>
+      <c r="P118" s="7"/>
+      <c r="Q118" s="7"/>
+      <c r="R118" s="7"/>
     </row>
     <row r="119" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K119" s="6"/>
-      <c r="L119" s="6"/>
-      <c r="M119" s="6"/>
-      <c r="N119" s="6"/>
-      <c r="O119" s="6"/>
-      <c r="P119" s="6"/>
-      <c r="Q119" s="6"/>
-      <c r="R119" s="6"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="7"/>
+      <c r="M119" s="7"/>
+      <c r="N119" s="7"/>
+      <c r="O119" s="7"/>
+      <c r="P119" s="7"/>
+      <c r="Q119" s="7"/>
+      <c r="R119" s="7"/>
     </row>
     <row r="120" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K120" s="6"/>
-      <c r="L120" s="6"/>
-      <c r="M120" s="6"/>
-      <c r="N120" s="6"/>
-      <c r="O120" s="6"/>
-      <c r="P120" s="6"/>
-      <c r="Q120" s="6"/>
-      <c r="R120" s="6"/>
+      <c r="K120" s="7"/>
+      <c r="L120" s="7"/>
+      <c r="M120" s="7"/>
+      <c r="N120" s="7"/>
+      <c r="O120" s="7"/>
+      <c r="P120" s="7"/>
+      <c r="Q120" s="7"/>
+      <c r="R120" s="7"/>
     </row>
     <row r="121" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K121" s="6"/>
-      <c r="L121" s="6"/>
-      <c r="M121" s="6"/>
-      <c r="N121" s="6"/>
-      <c r="O121" s="6"/>
-      <c r="P121" s="6"/>
-      <c r="Q121" s="6"/>
-      <c r="R121" s="6"/>
+      <c r="K121" s="7"/>
+      <c r="L121" s="7"/>
+      <c r="M121" s="7"/>
+      <c r="N121" s="7"/>
+      <c r="O121" s="7"/>
+      <c r="P121" s="7"/>
+      <c r="Q121" s="7"/>
+      <c r="R121" s="7"/>
     </row>
     <row r="122" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K122" s="6"/>
-      <c r="L122" s="6"/>
-      <c r="M122" s="6"/>
-      <c r="N122" s="6"/>
-      <c r="O122" s="6"/>
-      <c r="P122" s="6"/>
-      <c r="Q122" s="6"/>
-      <c r="R122" s="6"/>
+      <c r="K122" s="7"/>
+      <c r="L122" s="7"/>
+      <c r="M122" s="7"/>
+      <c r="N122" s="7"/>
+      <c r="O122" s="7"/>
+      <c r="P122" s="7"/>
+      <c r="Q122" s="7"/>
+      <c r="R122" s="7"/>
     </row>
     <row r="123" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A123" s="6" t="s">
+      <c r="A123" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B123" s="6"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-      <c r="K123" s="6"/>
-      <c r="L123" s="6"/>
-      <c r="M123" s="6"/>
-      <c r="N123" s="6"/>
-      <c r="O123" s="6"/>
-      <c r="P123" s="6"/>
-      <c r="Q123" s="6"/>
-      <c r="R123" s="6"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="K123" s="7"/>
+      <c r="L123" s="7"/>
+      <c r="M123" s="7"/>
+      <c r="N123" s="7"/>
+      <c r="O123" s="7"/>
+      <c r="P123" s="7"/>
+      <c r="Q123" s="7"/>
+      <c r="R123" s="7"/>
     </row>
     <row r="124" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-      <c r="K124" s="6"/>
-      <c r="L124" s="6"/>
-      <c r="M124" s="6"/>
-      <c r="N124" s="6"/>
-      <c r="O124" s="6"/>
-      <c r="P124" s="6"/>
-      <c r="Q124" s="6"/>
-      <c r="R124" s="6"/>
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="K124" s="7"/>
+      <c r="L124" s="7"/>
+      <c r="M124" s="7"/>
+      <c r="N124" s="7"/>
+      <c r="O124" s="7"/>
+      <c r="P124" s="7"/>
+      <c r="Q124" s="7"/>
+      <c r="R124" s="7"/>
     </row>
     <row r="125" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K125" s="6"/>
-      <c r="L125" s="6"/>
-      <c r="M125" s="6"/>
-      <c r="N125" s="6"/>
-      <c r="O125" s="6"/>
-      <c r="P125" s="6"/>
-      <c r="Q125" s="6"/>
-      <c r="R125" s="6"/>
+      <c r="K125" s="7"/>
+      <c r="L125" s="7"/>
+      <c r="M125" s="7"/>
+      <c r="N125" s="7"/>
+      <c r="O125" s="7"/>
+      <c r="P125" s="7"/>
+      <c r="Q125" s="7"/>
+      <c r="R125" s="7"/>
     </row>
     <row r="126" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K126" s="6"/>
-      <c r="L126" s="6"/>
-      <c r="M126" s="6"/>
-      <c r="N126" s="6"/>
-      <c r="O126" s="6"/>
-      <c r="P126" s="6"/>
-      <c r="Q126" s="6"/>
-      <c r="R126" s="6"/>
+      <c r="K126" s="7"/>
+      <c r="L126" s="7"/>
+      <c r="M126" s="7"/>
+      <c r="N126" s="7"/>
+      <c r="O126" s="7"/>
+      <c r="P126" s="7"/>
+      <c r="Q126" s="7"/>
+      <c r="R126" s="7"/>
     </row>
     <row r="127" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K127" s="6"/>
-      <c r="L127" s="6"/>
-      <c r="M127" s="6"/>
-      <c r="N127" s="6"/>
-      <c r="O127" s="6"/>
-      <c r="P127" s="6"/>
-      <c r="Q127" s="6"/>
-      <c r="R127" s="6"/>
+      <c r="K127" s="7"/>
+      <c r="L127" s="7"/>
+      <c r="M127" s="7"/>
+      <c r="N127" s="7"/>
+      <c r="O127" s="7"/>
+      <c r="P127" s="7"/>
+      <c r="Q127" s="7"/>
+      <c r="R127" s="7"/>
     </row>
     <row r="128" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K128" s="6"/>
-      <c r="L128" s="6"/>
-      <c r="M128" s="6"/>
-      <c r="N128" s="6"/>
-      <c r="O128" s="6"/>
-      <c r="P128" s="6"/>
-      <c r="Q128" s="6"/>
-      <c r="R128" s="6"/>
+      <c r="K128" s="7"/>
+      <c r="L128" s="7"/>
+      <c r="M128" s="7"/>
+      <c r="N128" s="7"/>
+      <c r="O128" s="7"/>
+      <c r="P128" s="7"/>
+      <c r="Q128" s="7"/>
+      <c r="R128" s="7"/>
     </row>
     <row r="129" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K129" s="6"/>
-      <c r="L129" s="6"/>
-      <c r="M129" s="6"/>
-      <c r="N129" s="6"/>
-      <c r="O129" s="6"/>
-      <c r="P129" s="6"/>
-      <c r="Q129" s="6"/>
-      <c r="R129" s="6"/>
+      <c r="K129" s="7"/>
+      <c r="L129" s="7"/>
+      <c r="M129" s="7"/>
+      <c r="N129" s="7"/>
+      <c r="O129" s="7"/>
+      <c r="P129" s="7"/>
+      <c r="Q129" s="7"/>
+      <c r="R129" s="7"/>
     </row>
     <row r="130" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K130" s="6"/>
-      <c r="L130" s="6"/>
-      <c r="M130" s="6"/>
-      <c r="N130" s="6"/>
-      <c r="O130" s="6"/>
-      <c r="P130" s="6"/>
-      <c r="Q130" s="6"/>
-      <c r="R130" s="6"/>
+      <c r="K130" s="7"/>
+      <c r="L130" s="7"/>
+      <c r="M130" s="7"/>
+      <c r="N130" s="7"/>
+      <c r="O130" s="7"/>
+      <c r="P130" s="7"/>
+      <c r="Q130" s="7"/>
+      <c r="R130" s="7"/>
     </row>
     <row r="131" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K131" s="6"/>
-      <c r="L131" s="6"/>
-      <c r="M131" s="6"/>
-      <c r="N131" s="6"/>
-      <c r="O131" s="6"/>
-      <c r="P131" s="6"/>
-      <c r="Q131" s="6"/>
-      <c r="R131" s="6"/>
+      <c r="K131" s="7"/>
+      <c r="L131" s="7"/>
+      <c r="M131" s="7"/>
+      <c r="N131" s="7"/>
+      <c r="O131" s="7"/>
+      <c r="P131" s="7"/>
+      <c r="Q131" s="7"/>
+      <c r="R131" s="7"/>
     </row>
     <row r="132" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K132" s="6"/>
-      <c r="L132" s="6"/>
-      <c r="M132" s="6"/>
-      <c r="N132" s="6"/>
-      <c r="O132" s="6"/>
-      <c r="P132" s="6"/>
-      <c r="Q132" s="6"/>
-      <c r="R132" s="6"/>
+      <c r="K132" s="7"/>
+      <c r="L132" s="7"/>
+      <c r="M132" s="7"/>
+      <c r="N132" s="7"/>
+      <c r="O132" s="7"/>
+      <c r="P132" s="7"/>
+      <c r="Q132" s="7"/>
+      <c r="R132" s="7"/>
     </row>
     <row r="133" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K133" s="6"/>
-      <c r="L133" s="6"/>
-      <c r="M133" s="6"/>
-      <c r="N133" s="6"/>
-      <c r="O133" s="6"/>
-      <c r="P133" s="6"/>
-      <c r="Q133" s="6"/>
-      <c r="R133" s="6"/>
+      <c r="K133" s="7"/>
+      <c r="L133" s="7"/>
+      <c r="M133" s="7"/>
+      <c r="N133" s="7"/>
+      <c r="O133" s="7"/>
+      <c r="P133" s="7"/>
+      <c r="Q133" s="7"/>
+      <c r="R133" s="7"/>
     </row>
     <row r="134" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K134" s="6"/>
-      <c r="L134" s="6"/>
-      <c r="M134" s="6"/>
-      <c r="N134" s="6"/>
-      <c r="O134" s="6"/>
-      <c r="P134" s="6"/>
-      <c r="Q134" s="6"/>
-      <c r="R134" s="6"/>
+      <c r="K134" s="7"/>
+      <c r="L134" s="7"/>
+      <c r="M134" s="7"/>
+      <c r="N134" s="7"/>
+      <c r="O134" s="7"/>
+      <c r="P134" s="7"/>
+      <c r="Q134" s="7"/>
+      <c r="R134" s="7"/>
     </row>
     <row r="135" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K135" s="6"/>
-      <c r="L135" s="6"/>
-      <c r="M135" s="6"/>
-      <c r="N135" s="6"/>
-      <c r="O135" s="6"/>
-      <c r="P135" s="6"/>
-      <c r="Q135" s="6"/>
-      <c r="R135" s="6"/>
+      <c r="K135" s="7"/>
+      <c r="L135" s="7"/>
+      <c r="M135" s="7"/>
+      <c r="N135" s="7"/>
+      <c r="O135" s="7"/>
+      <c r="P135" s="7"/>
+      <c r="Q135" s="7"/>
+      <c r="R135" s="7"/>
     </row>
     <row r="136" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K136" s="6"/>
-      <c r="L136" s="6"/>
-      <c r="M136" s="6"/>
-      <c r="N136" s="6"/>
-      <c r="O136" s="6"/>
-      <c r="P136" s="6"/>
-      <c r="Q136" s="6"/>
-      <c r="R136" s="6"/>
+      <c r="K136" s="7"/>
+      <c r="L136" s="7"/>
+      <c r="M136" s="7"/>
+      <c r="N136" s="7"/>
+      <c r="O136" s="7"/>
+      <c r="P136" s="7"/>
+      <c r="Q136" s="7"/>
+      <c r="R136" s="7"/>
     </row>
     <row r="137" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K137" s="6"/>
-      <c r="L137" s="6"/>
-      <c r="M137" s="6"/>
-      <c r="N137" s="6"/>
-      <c r="O137" s="6"/>
-      <c r="P137" s="6"/>
-      <c r="Q137" s="6"/>
-      <c r="R137" s="6"/>
+      <c r="K137" s="7"/>
+      <c r="L137" s="7"/>
+      <c r="M137" s="7"/>
+      <c r="N137" s="7"/>
+      <c r="O137" s="7"/>
+      <c r="P137" s="7"/>
+      <c r="Q137" s="7"/>
+      <c r="R137" s="7"/>
     </row>
     <row r="138" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K138" s="6"/>
-      <c r="L138" s="6"/>
-      <c r="M138" s="6"/>
-      <c r="N138" s="6"/>
-      <c r="O138" s="6"/>
-      <c r="P138" s="6"/>
-      <c r="Q138" s="6"/>
-      <c r="R138" s="6"/>
+      <c r="K138" s="7"/>
+      <c r="L138" s="7"/>
+      <c r="M138" s="7"/>
+      <c r="N138" s="7"/>
+      <c r="O138" s="7"/>
+      <c r="P138" s="7"/>
+      <c r="Q138" s="7"/>
+      <c r="R138" s="7"/>
     </row>
     <row r="139" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K139" s="6"/>
-      <c r="L139" s="6"/>
-      <c r="M139" s="6"/>
-      <c r="N139" s="6"/>
-      <c r="O139" s="6"/>
-      <c r="P139" s="6"/>
-      <c r="Q139" s="6"/>
-      <c r="R139" s="6"/>
-      <c r="AC139" s="5" t="s">
+      <c r="K139" s="7"/>
+      <c r="L139" s="7"/>
+      <c r="M139" s="7"/>
+      <c r="N139" s="7"/>
+      <c r="O139" s="7"/>
+      <c r="P139" s="7"/>
+      <c r="Q139" s="7"/>
+      <c r="R139" s="7"/>
+      <c r="AC139" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AD139" s="5"/>
-      <c r="AE139" s="5"/>
-      <c r="AF139" s="5"/>
-      <c r="AG139" s="5"/>
-      <c r="AH139" s="5"/>
-      <c r="AI139" s="5"/>
-      <c r="AJ139" s="5"/>
+      <c r="AD139" s="6"/>
+      <c r="AE139" s="6"/>
+      <c r="AF139" s="6"/>
+      <c r="AG139" s="6"/>
+      <c r="AH139" s="6"/>
+      <c r="AI139" s="6"/>
+      <c r="AJ139" s="6"/>
     </row>
     <row r="140" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K140" s="6"/>
-      <c r="L140" s="6"/>
-      <c r="M140" s="6"/>
-      <c r="N140" s="6"/>
-      <c r="O140" s="6"/>
-      <c r="P140" s="6"/>
-      <c r="Q140" s="6"/>
-      <c r="R140" s="6"/>
-      <c r="T140" s="5" t="s">
+      <c r="K140" s="7"/>
+      <c r="L140" s="7"/>
+      <c r="M140" s="7"/>
+      <c r="N140" s="7"/>
+      <c r="O140" s="7"/>
+      <c r="P140" s="7"/>
+      <c r="Q140" s="7"/>
+      <c r="R140" s="7"/>
+      <c r="T140" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U140" s="5"/>
-      <c r="V140" s="5"/>
-      <c r="W140" s="5"/>
-      <c r="X140" s="5"/>
-      <c r="Y140" s="5"/>
-      <c r="Z140" s="5"/>
-      <c r="AA140" s="5"/>
-      <c r="AC140" s="5" t="s">
+      <c r="U140" s="6"/>
+      <c r="V140" s="6"/>
+      <c r="W140" s="6"/>
+      <c r="X140" s="6"/>
+      <c r="Y140" s="6"/>
+      <c r="Z140" s="6"/>
+      <c r="AA140" s="6"/>
+      <c r="AC140" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AD140" s="5"/>
-      <c r="AE140" s="5"/>
-      <c r="AF140" s="5"/>
-      <c r="AG140" s="5"/>
-      <c r="AH140" s="5"/>
-      <c r="AI140" s="5"/>
-      <c r="AJ140" s="5"/>
+      <c r="AD140" s="6"/>
+      <c r="AE140" s="6"/>
+      <c r="AF140" s="6"/>
+      <c r="AG140" s="6"/>
+      <c r="AH140" s="6"/>
+      <c r="AI140" s="6"/>
+      <c r="AJ140" s="6"/>
     </row>
     <row r="141" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K141" s="6"/>
-      <c r="L141" s="6"/>
-      <c r="M141" s="6"/>
-      <c r="N141" s="6"/>
-      <c r="O141" s="6"/>
-      <c r="P141" s="6"/>
-      <c r="Q141" s="6"/>
-      <c r="R141" s="6"/>
-      <c r="T141" s="5" t="s">
+      <c r="K141" s="7"/>
+      <c r="L141" s="7"/>
+      <c r="M141" s="7"/>
+      <c r="N141" s="7"/>
+      <c r="O141" s="7"/>
+      <c r="P141" s="7"/>
+      <c r="Q141" s="7"/>
+      <c r="R141" s="7"/>
+      <c r="T141" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="U141" s="5"/>
-      <c r="V141" s="5"/>
-      <c r="W141" s="5"/>
-      <c r="X141" s="5"/>
-      <c r="Y141" s="5"/>
-      <c r="Z141" s="5"/>
-      <c r="AA141" s="5"/>
-      <c r="AC141" s="5" t="s">
+      <c r="U141" s="6"/>
+      <c r="V141" s="6"/>
+      <c r="W141" s="6"/>
+      <c r="X141" s="6"/>
+      <c r="Y141" s="6"/>
+      <c r="Z141" s="6"/>
+      <c r="AA141" s="6"/>
+      <c r="AC141" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AD141" s="5"/>
-      <c r="AE141" s="5"/>
-      <c r="AF141" s="5"/>
-      <c r="AG141" s="5"/>
-      <c r="AH141" s="5"/>
-      <c r="AI141" s="5"/>
-      <c r="AJ141" s="5"/>
+      <c r="AD141" s="6"/>
+      <c r="AE141" s="6"/>
+      <c r="AF141" s="6"/>
+      <c r="AG141" s="6"/>
+      <c r="AH141" s="6"/>
+      <c r="AI141" s="6"/>
+      <c r="AJ141" s="6"/>
     </row>
     <row r="142" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K142" s="6"/>
-      <c r="L142" s="6"/>
-      <c r="M142" s="6"/>
-      <c r="N142" s="6"/>
-      <c r="O142" s="6"/>
-      <c r="P142" s="6"/>
-      <c r="Q142" s="6"/>
-      <c r="R142" s="6"/>
-      <c r="T142" s="5" t="s">
+      <c r="K142" s="7"/>
+      <c r="L142" s="7"/>
+      <c r="M142" s="7"/>
+      <c r="N142" s="7"/>
+      <c r="O142" s="7"/>
+      <c r="P142" s="7"/>
+      <c r="Q142" s="7"/>
+      <c r="R142" s="7"/>
+      <c r="T142" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U142" s="5"/>
-      <c r="V142" s="5"/>
-      <c r="W142" s="5"/>
-      <c r="X142" s="5"/>
-      <c r="Y142" s="5"/>
-      <c r="Z142" s="5"/>
-      <c r="AA142" s="5"/>
+      <c r="U142" s="6"/>
+      <c r="V142" s="6"/>
+      <c r="W142" s="6"/>
+      <c r="X142" s="6"/>
+      <c r="Y142" s="6"/>
+      <c r="Z142" s="6"/>
+      <c r="AA142" s="6"/>
     </row>
     <row r="143" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K143" s="6"/>
-      <c r="L143" s="6"/>
-      <c r="M143" s="6"/>
-      <c r="N143" s="6"/>
-      <c r="O143" s="6"/>
-      <c r="P143" s="6"/>
-      <c r="Q143" s="6"/>
-      <c r="R143" s="6"/>
+      <c r="K143" s="7"/>
+      <c r="L143" s="7"/>
+      <c r="M143" s="7"/>
+      <c r="N143" s="7"/>
+      <c r="O143" s="7"/>
+      <c r="P143" s="7"/>
+      <c r="Q143" s="7"/>
+      <c r="R143" s="7"/>
     </row>
     <row r="144" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K144" s="6"/>
-      <c r="L144" s="6"/>
-      <c r="M144" s="6"/>
-      <c r="N144" s="6"/>
-      <c r="O144" s="6"/>
-      <c r="P144" s="6"/>
-      <c r="Q144" s="6"/>
-      <c r="R144" s="6"/>
+      <c r="K144" s="7"/>
+      <c r="L144" s="7"/>
+      <c r="M144" s="7"/>
+      <c r="N144" s="7"/>
+      <c r="O144" s="7"/>
+      <c r="P144" s="7"/>
+      <c r="Q144" s="7"/>
+      <c r="R144" s="7"/>
     </row>
     <row r="145" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K145" s="6"/>
-      <c r="L145" s="6"/>
-      <c r="M145" s="6"/>
-      <c r="N145" s="6"/>
-      <c r="O145" s="6"/>
-      <c r="P145" s="6"/>
-      <c r="Q145" s="6"/>
-      <c r="R145" s="6"/>
+      <c r="K145" s="7"/>
+      <c r="L145" s="7"/>
+      <c r="M145" s="7"/>
+      <c r="N145" s="7"/>
+      <c r="O145" s="7"/>
+      <c r="P145" s="7"/>
+      <c r="Q145" s="7"/>
+      <c r="R145" s="7"/>
     </row>
     <row r="146" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K146" s="6"/>
-      <c r="L146" s="6"/>
-      <c r="M146" s="6"/>
-      <c r="N146" s="6"/>
-      <c r="O146" s="6"/>
-      <c r="P146" s="6"/>
-      <c r="Q146" s="6"/>
-      <c r="R146" s="6"/>
+      <c r="K146" s="7"/>
+      <c r="L146" s="7"/>
+      <c r="M146" s="7"/>
+      <c r="N146" s="7"/>
+      <c r="O146" s="7"/>
+      <c r="P146" s="7"/>
+      <c r="Q146" s="7"/>
+      <c r="R146" s="7"/>
     </row>
     <row r="147" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K147" s="6"/>
-      <c r="L147" s="6"/>
-      <c r="M147" s="6"/>
-      <c r="N147" s="6"/>
-      <c r="O147" s="6"/>
-      <c r="P147" s="6"/>
-      <c r="Q147" s="6"/>
-      <c r="R147" s="6"/>
+      <c r="K147" s="7"/>
+      <c r="L147" s="7"/>
+      <c r="M147" s="7"/>
+      <c r="N147" s="7"/>
+      <c r="O147" s="7"/>
+      <c r="P147" s="7"/>
+      <c r="Q147" s="7"/>
+      <c r="R147" s="7"/>
     </row>
     <row r="148" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K148" s="6"/>
-      <c r="L148" s="6"/>
-      <c r="M148" s="6"/>
-      <c r="N148" s="6"/>
-      <c r="O148" s="6"/>
-      <c r="P148" s="6"/>
-      <c r="Q148" s="6"/>
-      <c r="R148" s="6"/>
+      <c r="K148" s="7"/>
+      <c r="L148" s="7"/>
+      <c r="M148" s="7"/>
+      <c r="N148" s="7"/>
+      <c r="O148" s="7"/>
+      <c r="P148" s="7"/>
+      <c r="Q148" s="7"/>
+      <c r="R148" s="7"/>
     </row>
     <row r="149" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A149" s="6" t="s">
+      <c r="A149" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B149" s="6"/>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6"/>
-      <c r="G149" s="6"/>
-      <c r="H149" s="6"/>
-      <c r="K149" s="6"/>
-      <c r="L149" s="6"/>
-      <c r="M149" s="6"/>
-      <c r="N149" s="6"/>
-      <c r="O149" s="6"/>
-      <c r="P149" s="6"/>
-      <c r="Q149" s="6"/>
-      <c r="R149" s="6"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="K149" s="7"/>
+      <c r="L149" s="7"/>
+      <c r="M149" s="7"/>
+      <c r="N149" s="7"/>
+      <c r="O149" s="7"/>
+      <c r="P149" s="7"/>
+      <c r="Q149" s="7"/>
+      <c r="R149" s="7"/>
     </row>
     <row r="150" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A150" s="7"/>
-      <c r="B150" s="7"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="7"/>
-      <c r="H150" s="7"/>
-      <c r="K150" s="6"/>
-      <c r="L150" s="6"/>
-      <c r="M150" s="6"/>
-      <c r="N150" s="6"/>
-      <c r="O150" s="6"/>
-      <c r="P150" s="6"/>
-      <c r="Q150" s="6"/>
-      <c r="R150" s="6"/>
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="K150" s="7"/>
+      <c r="L150" s="7"/>
+      <c r="M150" s="7"/>
+      <c r="N150" s="7"/>
+      <c r="O150" s="7"/>
+      <c r="P150" s="7"/>
+      <c r="Q150" s="7"/>
+      <c r="R150" s="7"/>
     </row>
     <row r="151" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K151" s="6"/>
-      <c r="L151" s="6"/>
-      <c r="M151" s="6"/>
-      <c r="N151" s="6"/>
-      <c r="O151" s="6"/>
-      <c r="P151" s="6"/>
-      <c r="Q151" s="6"/>
-      <c r="R151" s="6"/>
+      <c r="K151" s="7"/>
+      <c r="L151" s="7"/>
+      <c r="M151" s="7"/>
+      <c r="N151" s="7"/>
+      <c r="O151" s="7"/>
+      <c r="P151" s="7"/>
+      <c r="Q151" s="7"/>
+      <c r="R151" s="7"/>
     </row>
     <row r="152" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K152" s="6"/>
-      <c r="L152" s="6"/>
-      <c r="M152" s="6"/>
-      <c r="N152" s="6"/>
-      <c r="O152" s="6"/>
-      <c r="P152" s="6"/>
-      <c r="Q152" s="6"/>
-      <c r="R152" s="6"/>
+      <c r="K152" s="7"/>
+      <c r="L152" s="7"/>
+      <c r="M152" s="7"/>
+      <c r="N152" s="7"/>
+      <c r="O152" s="7"/>
+      <c r="P152" s="7"/>
+      <c r="Q152" s="7"/>
+      <c r="R152" s="7"/>
     </row>
     <row r="153" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K153" s="6"/>
-      <c r="L153" s="6"/>
-      <c r="M153" s="6"/>
-      <c r="N153" s="6"/>
-      <c r="O153" s="6"/>
-      <c r="P153" s="6"/>
-      <c r="Q153" s="6"/>
-      <c r="R153" s="6"/>
+      <c r="K153" s="7"/>
+      <c r="L153" s="7"/>
+      <c r="M153" s="7"/>
+      <c r="N153" s="7"/>
+      <c r="O153" s="7"/>
+      <c r="P153" s="7"/>
+      <c r="Q153" s="7"/>
+      <c r="R153" s="7"/>
     </row>
     <row r="154" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K154" s="6"/>
-      <c r="L154" s="6"/>
-      <c r="M154" s="6"/>
-      <c r="N154" s="6"/>
-      <c r="O154" s="6"/>
-      <c r="P154" s="6"/>
-      <c r="Q154" s="6"/>
-      <c r="R154" s="6"/>
+      <c r="K154" s="7"/>
+      <c r="L154" s="7"/>
+      <c r="M154" s="7"/>
+      <c r="N154" s="7"/>
+      <c r="O154" s="7"/>
+      <c r="P154" s="7"/>
+      <c r="Q154" s="7"/>
+      <c r="R154" s="7"/>
     </row>
     <row r="155" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K155" s="6"/>
-      <c r="L155" s="6"/>
-      <c r="M155" s="6"/>
-      <c r="N155" s="6"/>
-      <c r="O155" s="6"/>
-      <c r="P155" s="6"/>
-      <c r="Q155" s="6"/>
-      <c r="R155" s="6"/>
+      <c r="K155" s="7"/>
+      <c r="L155" s="7"/>
+      <c r="M155" s="7"/>
+      <c r="N155" s="7"/>
+      <c r="O155" s="7"/>
+      <c r="P155" s="7"/>
+      <c r="Q155" s="7"/>
+      <c r="R155" s="7"/>
     </row>
     <row r="156" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K156" s="6"/>
-      <c r="L156" s="6"/>
-      <c r="M156" s="6"/>
-      <c r="N156" s="6"/>
-      <c r="O156" s="6"/>
-      <c r="P156" s="6"/>
-      <c r="Q156" s="6"/>
-      <c r="R156" s="6"/>
-      <c r="AC156" s="5" t="s">
+      <c r="K156" s="7"/>
+      <c r="L156" s="7"/>
+      <c r="M156" s="7"/>
+      <c r="N156" s="7"/>
+      <c r="O156" s="7"/>
+      <c r="P156" s="7"/>
+      <c r="Q156" s="7"/>
+      <c r="R156" s="7"/>
+      <c r="AC156" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AD156" s="5"/>
-      <c r="AE156" s="5"/>
-      <c r="AF156" s="5"/>
-      <c r="AG156" s="5"/>
-      <c r="AH156" s="5"/>
-      <c r="AI156" s="5"/>
-      <c r="AJ156" s="5"/>
+      <c r="AD156" s="6"/>
+      <c r="AE156" s="6"/>
+      <c r="AF156" s="6"/>
+      <c r="AG156" s="6"/>
+      <c r="AH156" s="6"/>
+      <c r="AI156" s="6"/>
+      <c r="AJ156" s="6"/>
     </row>
     <row r="157" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K157" s="6"/>
-      <c r="L157" s="6"/>
-      <c r="M157" s="6"/>
-      <c r="N157" s="6"/>
-      <c r="O157" s="6"/>
-      <c r="P157" s="6"/>
-      <c r="Q157" s="6"/>
-      <c r="R157" s="6"/>
-      <c r="AC157" s="5" t="s">
+      <c r="K157" s="7"/>
+      <c r="L157" s="7"/>
+      <c r="M157" s="7"/>
+      <c r="N157" s="7"/>
+      <c r="O157" s="7"/>
+      <c r="P157" s="7"/>
+      <c r="Q157" s="7"/>
+      <c r="R157" s="7"/>
+      <c r="AC157" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AD157" s="5"/>
-      <c r="AE157" s="5"/>
-      <c r="AF157" s="5"/>
-      <c r="AG157" s="5"/>
-      <c r="AH157" s="5"/>
-      <c r="AI157" s="5"/>
-      <c r="AJ157" s="5"/>
+      <c r="AD157" s="6"/>
+      <c r="AE157" s="6"/>
+      <c r="AF157" s="6"/>
+      <c r="AG157" s="6"/>
+      <c r="AH157" s="6"/>
+      <c r="AI157" s="6"/>
+      <c r="AJ157" s="6"/>
     </row>
     <row r="158" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K158" s="6"/>
-      <c r="L158" s="6"/>
-      <c r="M158" s="6"/>
-      <c r="N158" s="6"/>
-      <c r="O158" s="6"/>
-      <c r="P158" s="6"/>
-      <c r="Q158" s="6"/>
-      <c r="R158" s="6"/>
-      <c r="AC158" s="5" t="s">
+      <c r="K158" s="7"/>
+      <c r="L158" s="7"/>
+      <c r="M158" s="7"/>
+      <c r="N158" s="7"/>
+      <c r="O158" s="7"/>
+      <c r="P158" s="7"/>
+      <c r="Q158" s="7"/>
+      <c r="R158" s="7"/>
+      <c r="AC158" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AD158" s="5"/>
-      <c r="AE158" s="5"/>
-      <c r="AF158" s="5"/>
-      <c r="AG158" s="5"/>
-      <c r="AH158" s="5"/>
-      <c r="AI158" s="5"/>
-      <c r="AJ158" s="5"/>
+      <c r="AD158" s="6"/>
+      <c r="AE158" s="6"/>
+      <c r="AF158" s="6"/>
+      <c r="AG158" s="6"/>
+      <c r="AH158" s="6"/>
+      <c r="AI158" s="6"/>
+      <c r="AJ158" s="6"/>
     </row>
     <row r="159" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K159" s="6"/>
-      <c r="L159" s="6"/>
-      <c r="M159" s="6"/>
-      <c r="N159" s="6"/>
-      <c r="O159" s="6"/>
-      <c r="P159" s="6"/>
-      <c r="Q159" s="6"/>
-      <c r="R159" s="6"/>
+      <c r="K159" s="7"/>
+      <c r="L159" s="7"/>
+      <c r="M159" s="7"/>
+      <c r="N159" s="7"/>
+      <c r="O159" s="7"/>
+      <c r="P159" s="7"/>
+      <c r="Q159" s="7"/>
+      <c r="R159" s="7"/>
     </row>
     <row r="160" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="K160" s="6"/>
-      <c r="L160" s="6"/>
-      <c r="M160" s="6"/>
-      <c r="N160" s="6"/>
-      <c r="O160" s="6"/>
-      <c r="P160" s="6"/>
-      <c r="Q160" s="6"/>
-      <c r="R160" s="6"/>
+      <c r="K160" s="7"/>
+      <c r="L160" s="7"/>
+      <c r="M160" s="7"/>
+      <c r="N160" s="7"/>
+      <c r="O160" s="7"/>
+      <c r="P160" s="7"/>
+      <c r="Q160" s="7"/>
+      <c r="R160" s="7"/>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K161" s="6"/>
-      <c r="L161" s="6"/>
-      <c r="M161" s="6"/>
-      <c r="N161" s="6"/>
-      <c r="O161" s="6"/>
-      <c r="P161" s="6"/>
-      <c r="Q161" s="6"/>
-      <c r="R161" s="6"/>
+      <c r="K161" s="7"/>
+      <c r="L161" s="7"/>
+      <c r="M161" s="7"/>
+      <c r="N161" s="7"/>
+      <c r="O161" s="7"/>
+      <c r="P161" s="7"/>
+      <c r="Q161" s="7"/>
+      <c r="R161" s="7"/>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K162" s="6"/>
-      <c r="L162" s="6"/>
-      <c r="M162" s="6"/>
-      <c r="N162" s="6"/>
-      <c r="O162" s="6"/>
-      <c r="P162" s="6"/>
-      <c r="Q162" s="6"/>
-      <c r="R162" s="6"/>
+      <c r="K162" s="7"/>
+      <c r="L162" s="7"/>
+      <c r="M162" s="7"/>
+      <c r="N162" s="7"/>
+      <c r="O162" s="7"/>
+      <c r="P162" s="7"/>
+      <c r="Q162" s="7"/>
+      <c r="R162" s="7"/>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K163" s="6"/>
-      <c r="L163" s="6"/>
-      <c r="M163" s="6"/>
-      <c r="N163" s="6"/>
-      <c r="O163" s="6"/>
-      <c r="P163" s="6"/>
-      <c r="Q163" s="6"/>
-      <c r="R163" s="6"/>
+      <c r="K163" s="7"/>
+      <c r="L163" s="7"/>
+      <c r="M163" s="7"/>
+      <c r="N163" s="7"/>
+      <c r="O163" s="7"/>
+      <c r="P163" s="7"/>
+      <c r="Q163" s="7"/>
+      <c r="R163" s="7"/>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K164" s="6"/>
-      <c r="L164" s="6"/>
-      <c r="M164" s="6"/>
-      <c r="N164" s="6"/>
-      <c r="O164" s="6"/>
-      <c r="P164" s="6"/>
-      <c r="Q164" s="6"/>
-      <c r="R164" s="6"/>
+      <c r="K164" s="7"/>
+      <c r="L164" s="7"/>
+      <c r="M164" s="7"/>
+      <c r="N164" s="7"/>
+      <c r="O164" s="7"/>
+      <c r="P164" s="7"/>
+      <c r="Q164" s="7"/>
+      <c r="R164" s="7"/>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K165" s="6"/>
-      <c r="L165" s="6"/>
-      <c r="M165" s="6"/>
-      <c r="N165" s="6"/>
-      <c r="O165" s="6"/>
-      <c r="P165" s="6"/>
-      <c r="Q165" s="6"/>
-      <c r="R165" s="6"/>
+      <c r="K165" s="7"/>
+      <c r="L165" s="7"/>
+      <c r="M165" s="7"/>
+      <c r="N165" s="7"/>
+      <c r="O165" s="7"/>
+      <c r="P165" s="7"/>
+      <c r="Q165" s="7"/>
+      <c r="R165" s="7"/>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K166" s="6"/>
-      <c r="L166" s="6"/>
-      <c r="M166" s="6"/>
-      <c r="N166" s="6"/>
-      <c r="O166" s="6"/>
-      <c r="P166" s="6"/>
-      <c r="Q166" s="6"/>
-      <c r="R166" s="6"/>
+      <c r="K166" s="7"/>
+      <c r="L166" s="7"/>
+      <c r="M166" s="7"/>
+      <c r="N166" s="7"/>
+      <c r="O166" s="7"/>
+      <c r="P166" s="7"/>
+      <c r="Q166" s="7"/>
+      <c r="R166" s="7"/>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K167" s="6"/>
-      <c r="L167" s="6"/>
-      <c r="M167" s="6"/>
-      <c r="N167" s="6"/>
-      <c r="O167" s="6"/>
-      <c r="P167" s="6"/>
-      <c r="Q167" s="6"/>
-      <c r="R167" s="6"/>
+      <c r="K167" s="7"/>
+      <c r="L167" s="7"/>
+      <c r="M167" s="7"/>
+      <c r="N167" s="7"/>
+      <c r="O167" s="7"/>
+      <c r="P167" s="7"/>
+      <c r="Q167" s="7"/>
+      <c r="R167" s="7"/>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K168" s="6"/>
-      <c r="L168" s="6"/>
-      <c r="M168" s="6"/>
-      <c r="N168" s="6"/>
-      <c r="O168" s="6"/>
-      <c r="P168" s="6"/>
-      <c r="Q168" s="6"/>
-      <c r="R168" s="6"/>
+      <c r="K168" s="7"/>
+      <c r="L168" s="7"/>
+      <c r="M168" s="7"/>
+      <c r="N168" s="7"/>
+      <c r="O168" s="7"/>
+      <c r="P168" s="7"/>
+      <c r="Q168" s="7"/>
+      <c r="R168" s="7"/>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K169" s="6"/>
-      <c r="L169" s="6"/>
-      <c r="M169" s="6"/>
-      <c r="N169" s="6"/>
-      <c r="O169" s="6"/>
-      <c r="P169" s="6"/>
-      <c r="Q169" s="6"/>
-      <c r="R169" s="6"/>
+      <c r="K169" s="7"/>
+      <c r="L169" s="7"/>
+      <c r="M169" s="7"/>
+      <c r="N169" s="7"/>
+      <c r="O169" s="7"/>
+      <c r="P169" s="7"/>
+      <c r="Q169" s="7"/>
+      <c r="R169" s="7"/>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K170" s="6"/>
-      <c r="L170" s="6"/>
-      <c r="M170" s="6"/>
-      <c r="N170" s="6"/>
-      <c r="O170" s="6"/>
-      <c r="P170" s="6"/>
-      <c r="Q170" s="6"/>
-      <c r="R170" s="6"/>
+      <c r="K170" s="7"/>
+      <c r="L170" s="7"/>
+      <c r="M170" s="7"/>
+      <c r="N170" s="7"/>
+      <c r="O170" s="7"/>
+      <c r="P170" s="7"/>
+      <c r="Q170" s="7"/>
+      <c r="R170" s="7"/>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K171" s="6"/>
-      <c r="L171" s="6"/>
-      <c r="M171" s="6"/>
-      <c r="N171" s="6"/>
-      <c r="O171" s="6"/>
-      <c r="P171" s="6"/>
-      <c r="Q171" s="6"/>
-      <c r="R171" s="6"/>
+      <c r="K171" s="7"/>
+      <c r="L171" s="7"/>
+      <c r="M171" s="7"/>
+      <c r="N171" s="7"/>
+      <c r="O171" s="7"/>
+      <c r="P171" s="7"/>
+      <c r="Q171" s="7"/>
+      <c r="R171" s="7"/>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K172" s="6"/>
-      <c r="L172" s="6"/>
-      <c r="M172" s="6"/>
-      <c r="N172" s="6"/>
-      <c r="O172" s="6"/>
-      <c r="P172" s="6"/>
-      <c r="Q172" s="6"/>
-      <c r="R172" s="6"/>
+      <c r="K172" s="7"/>
+      <c r="L172" s="7"/>
+      <c r="M172" s="7"/>
+      <c r="N172" s="7"/>
+      <c r="O172" s="7"/>
+      <c r="P172" s="7"/>
+      <c r="Q172" s="7"/>
+      <c r="R172" s="7"/>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K173" s="6"/>
-      <c r="L173" s="6"/>
-      <c r="M173" s="6"/>
-      <c r="N173" s="6"/>
-      <c r="O173" s="6"/>
-      <c r="P173" s="6"/>
-      <c r="Q173" s="6"/>
-      <c r="R173" s="6"/>
+      <c r="K173" s="7"/>
+      <c r="L173" s="7"/>
+      <c r="M173" s="7"/>
+      <c r="N173" s="7"/>
+      <c r="O173" s="7"/>
+      <c r="P173" s="7"/>
+      <c r="Q173" s="7"/>
+      <c r="R173" s="7"/>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K174" s="6"/>
-      <c r="L174" s="6"/>
-      <c r="M174" s="6"/>
-      <c r="N174" s="6"/>
-      <c r="O174" s="6"/>
-      <c r="P174" s="6"/>
-      <c r="Q174" s="6"/>
-      <c r="R174" s="6"/>
+      <c r="K174" s="7"/>
+      <c r="L174" s="7"/>
+      <c r="M174" s="7"/>
+      <c r="N174" s="7"/>
+      <c r="O174" s="7"/>
+      <c r="P174" s="7"/>
+      <c r="Q174" s="7"/>
+      <c r="R174" s="7"/>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K175" s="6"/>
-      <c r="L175" s="6"/>
-      <c r="M175" s="6"/>
-      <c r="N175" s="6"/>
-      <c r="O175" s="6"/>
-      <c r="P175" s="6"/>
-      <c r="Q175" s="6"/>
-      <c r="R175" s="6"/>
+      <c r="K175" s="7"/>
+      <c r="L175" s="7"/>
+      <c r="M175" s="7"/>
+      <c r="N175" s="7"/>
+      <c r="O175" s="7"/>
+      <c r="P175" s="7"/>
+      <c r="Q175" s="7"/>
+      <c r="R175" s="7"/>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A176" s="6" t="s">
+      <c r="A176" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B176" s="6"/>
-      <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
-      <c r="E176" s="6"/>
-      <c r="F176" s="6"/>
-      <c r="G176" s="6"/>
-      <c r="H176" s="6"/>
-      <c r="K176" s="6"/>
-      <c r="L176" s="6"/>
-      <c r="M176" s="6"/>
-      <c r="N176" s="6"/>
-      <c r="O176" s="6"/>
-      <c r="P176" s="6"/>
-      <c r="Q176" s="6"/>
-      <c r="R176" s="6"/>
+      <c r="B176" s="7"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
+      <c r="K176" s="7"/>
+      <c r="L176" s="7"/>
+      <c r="M176" s="7"/>
+      <c r="N176" s="7"/>
+      <c r="O176" s="7"/>
+      <c r="P176" s="7"/>
+      <c r="Q176" s="7"/>
+      <c r="R176" s="7"/>
     </row>
     <row r="177" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K177" s="6"/>
-      <c r="L177" s="6"/>
-      <c r="M177" s="6"/>
-      <c r="N177" s="6"/>
-      <c r="O177" s="6"/>
-      <c r="P177" s="6"/>
-      <c r="Q177" s="6"/>
-      <c r="R177" s="6"/>
+      <c r="K177" s="7"/>
+      <c r="L177" s="7"/>
+      <c r="M177" s="7"/>
+      <c r="N177" s="7"/>
+      <c r="O177" s="7"/>
+      <c r="P177" s="7"/>
+      <c r="Q177" s="7"/>
+      <c r="R177" s="7"/>
     </row>
     <row r="178" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K178" s="6"/>
-      <c r="L178" s="6"/>
-      <c r="M178" s="6"/>
-      <c r="N178" s="6"/>
-      <c r="O178" s="6"/>
-      <c r="P178" s="6"/>
-      <c r="Q178" s="6"/>
-      <c r="R178" s="6"/>
+      <c r="K178" s="7"/>
+      <c r="L178" s="7"/>
+      <c r="M178" s="7"/>
+      <c r="N178" s="7"/>
+      <c r="O178" s="7"/>
+      <c r="P178" s="7"/>
+      <c r="Q178" s="7"/>
+      <c r="R178" s="7"/>
     </row>
     <row r="179" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K179" s="6"/>
-      <c r="L179" s="6"/>
-      <c r="M179" s="6"/>
-      <c r="N179" s="6"/>
-      <c r="O179" s="6"/>
-      <c r="P179" s="6"/>
-      <c r="Q179" s="6"/>
-      <c r="R179" s="6"/>
+      <c r="K179" s="7"/>
+      <c r="L179" s="7"/>
+      <c r="M179" s="7"/>
+      <c r="N179" s="7"/>
+      <c r="O179" s="7"/>
+      <c r="P179" s="7"/>
+      <c r="Q179" s="7"/>
+      <c r="R179" s="7"/>
     </row>
     <row r="180" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K180" s="6"/>
-      <c r="L180" s="6"/>
-      <c r="M180" s="6"/>
-      <c r="N180" s="6"/>
-      <c r="O180" s="6"/>
-      <c r="P180" s="6"/>
-      <c r="Q180" s="6"/>
-      <c r="R180" s="6"/>
+      <c r="K180" s="7"/>
+      <c r="L180" s="7"/>
+      <c r="M180" s="7"/>
+      <c r="N180" s="7"/>
+      <c r="O180" s="7"/>
+      <c r="P180" s="7"/>
+      <c r="Q180" s="7"/>
+      <c r="R180" s="7"/>
     </row>
     <row r="181" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K181" s="6"/>
-      <c r="L181" s="6"/>
-      <c r="M181" s="6"/>
-      <c r="N181" s="6"/>
-      <c r="O181" s="6"/>
-      <c r="P181" s="6"/>
-      <c r="Q181" s="6"/>
-      <c r="R181" s="6"/>
+      <c r="K181" s="7"/>
+      <c r="L181" s="7"/>
+      <c r="M181" s="7"/>
+      <c r="N181" s="7"/>
+      <c r="O181" s="7"/>
+      <c r="P181" s="7"/>
+      <c r="Q181" s="7"/>
+      <c r="R181" s="7"/>
     </row>
     <row r="182" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K182" s="6"/>
-      <c r="L182" s="6"/>
-      <c r="M182" s="6"/>
-      <c r="N182" s="6"/>
-      <c r="O182" s="6"/>
-      <c r="P182" s="6"/>
-      <c r="Q182" s="6"/>
-      <c r="R182" s="6"/>
+      <c r="K182" s="7"/>
+      <c r="L182" s="7"/>
+      <c r="M182" s="7"/>
+      <c r="N182" s="7"/>
+      <c r="O182" s="7"/>
+      <c r="P182" s="7"/>
+      <c r="Q182" s="7"/>
+      <c r="R182" s="7"/>
     </row>
     <row r="183" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K183" s="6"/>
-      <c r="L183" s="6"/>
-      <c r="M183" s="6"/>
-      <c r="N183" s="6"/>
-      <c r="O183" s="6"/>
-      <c r="P183" s="6"/>
-      <c r="Q183" s="6"/>
-      <c r="R183" s="6"/>
+      <c r="K183" s="7"/>
+      <c r="L183" s="7"/>
+      <c r="M183" s="7"/>
+      <c r="N183" s="7"/>
+      <c r="O183" s="7"/>
+      <c r="P183" s="7"/>
+      <c r="Q183" s="7"/>
+      <c r="R183" s="7"/>
     </row>
     <row r="184" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K184" s="6"/>
-      <c r="L184" s="6"/>
-      <c r="M184" s="6"/>
-      <c r="N184" s="6"/>
-      <c r="O184" s="6"/>
-      <c r="P184" s="6"/>
-      <c r="Q184" s="6"/>
-      <c r="R184" s="6"/>
+      <c r="K184" s="7"/>
+      <c r="L184" s="7"/>
+      <c r="M184" s="7"/>
+      <c r="N184" s="7"/>
+      <c r="O184" s="7"/>
+      <c r="P184" s="7"/>
+      <c r="Q184" s="7"/>
+      <c r="R184" s="7"/>
     </row>
     <row r="185" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K185" s="6"/>
-      <c r="L185" s="6"/>
-      <c r="M185" s="6"/>
-      <c r="N185" s="6"/>
-      <c r="O185" s="6"/>
-      <c r="P185" s="6"/>
-      <c r="Q185" s="6"/>
-      <c r="R185" s="6"/>
+      <c r="K185" s="7"/>
+      <c r="L185" s="7"/>
+      <c r="M185" s="7"/>
+      <c r="N185" s="7"/>
+      <c r="O185" s="7"/>
+      <c r="P185" s="7"/>
+      <c r="Q185" s="7"/>
+      <c r="R185" s="7"/>
     </row>
     <row r="186" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K186" s="6"/>
-      <c r="L186" s="6"/>
-      <c r="M186" s="6"/>
-      <c r="N186" s="6"/>
-      <c r="O186" s="6"/>
-      <c r="P186" s="6"/>
-      <c r="Q186" s="6"/>
-      <c r="R186" s="6"/>
+      <c r="K186" s="7"/>
+      <c r="L186" s="7"/>
+      <c r="M186" s="7"/>
+      <c r="N186" s="7"/>
+      <c r="O186" s="7"/>
+      <c r="P186" s="7"/>
+      <c r="Q186" s="7"/>
+      <c r="R186" s="7"/>
     </row>
     <row r="187" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K187" s="6"/>
-      <c r="L187" s="6"/>
-      <c r="M187" s="6"/>
-      <c r="N187" s="6"/>
-      <c r="O187" s="6"/>
-      <c r="P187" s="6"/>
-      <c r="Q187" s="6"/>
-      <c r="R187" s="6"/>
+      <c r="K187" s="7"/>
+      <c r="L187" s="7"/>
+      <c r="M187" s="7"/>
+      <c r="N187" s="7"/>
+      <c r="O187" s="7"/>
+      <c r="P187" s="7"/>
+      <c r="Q187" s="7"/>
+      <c r="R187" s="7"/>
     </row>
     <row r="188" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K188" s="6"/>
-      <c r="L188" s="6"/>
-      <c r="M188" s="6"/>
-      <c r="N188" s="6"/>
-      <c r="O188" s="6"/>
-      <c r="P188" s="6"/>
-      <c r="Q188" s="6"/>
-      <c r="R188" s="6"/>
+      <c r="K188" s="7"/>
+      <c r="L188" s="7"/>
+      <c r="M188" s="7"/>
+      <c r="N188" s="7"/>
+      <c r="O188" s="7"/>
+      <c r="P188" s="7"/>
+      <c r="Q188" s="7"/>
+      <c r="R188" s="7"/>
     </row>
     <row r="189" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K189" s="6"/>
-      <c r="L189" s="6"/>
-      <c r="M189" s="6"/>
-      <c r="N189" s="6"/>
-      <c r="O189" s="6"/>
-      <c r="P189" s="6"/>
-      <c r="Q189" s="6"/>
-      <c r="R189" s="6"/>
+      <c r="K189" s="7"/>
+      <c r="L189" s="7"/>
+      <c r="M189" s="7"/>
+      <c r="N189" s="7"/>
+      <c r="O189" s="7"/>
+      <c r="P189" s="7"/>
+      <c r="Q189" s="7"/>
+      <c r="R189" s="7"/>
     </row>
     <row r="190" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K190" s="6"/>
-      <c r="L190" s="6"/>
-      <c r="M190" s="6"/>
-      <c r="N190" s="6"/>
-      <c r="O190" s="6"/>
-      <c r="P190" s="6"/>
-      <c r="Q190" s="6"/>
-      <c r="R190" s="6"/>
+      <c r="K190" s="7"/>
+      <c r="L190" s="7"/>
+      <c r="M190" s="7"/>
+      <c r="N190" s="7"/>
+      <c r="O190" s="7"/>
+      <c r="P190" s="7"/>
+      <c r="Q190" s="7"/>
+      <c r="R190" s="7"/>
     </row>
     <row r="191" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K191" s="6"/>
-      <c r="L191" s="6"/>
-      <c r="M191" s="6"/>
-      <c r="N191" s="6"/>
-      <c r="O191" s="6"/>
-      <c r="P191" s="6"/>
-      <c r="Q191" s="6"/>
-      <c r="R191" s="6"/>
+      <c r="K191" s="7"/>
+      <c r="L191" s="7"/>
+      <c r="M191" s="7"/>
+      <c r="N191" s="7"/>
+      <c r="O191" s="7"/>
+      <c r="P191" s="7"/>
+      <c r="Q191" s="7"/>
+      <c r="R191" s="7"/>
     </row>
     <row r="192" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K192" s="6"/>
-      <c r="L192" s="6"/>
-      <c r="M192" s="6"/>
-      <c r="N192" s="6"/>
-      <c r="O192" s="6"/>
-      <c r="P192" s="6"/>
-      <c r="Q192" s="6"/>
-      <c r="R192" s="6"/>
+      <c r="K192" s="7"/>
+      <c r="L192" s="7"/>
+      <c r="M192" s="7"/>
+      <c r="N192" s="7"/>
+      <c r="O192" s="7"/>
+      <c r="P192" s="7"/>
+      <c r="Q192" s="7"/>
+      <c r="R192" s="7"/>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K193" s="6"/>
-      <c r="L193" s="6"/>
-      <c r="M193" s="6"/>
-      <c r="N193" s="6"/>
-      <c r="O193" s="6"/>
-      <c r="P193" s="6"/>
-      <c r="Q193" s="6"/>
-      <c r="R193" s="6"/>
+      <c r="K193" s="7"/>
+      <c r="L193" s="7"/>
+      <c r="M193" s="7"/>
+      <c r="N193" s="7"/>
+      <c r="O193" s="7"/>
+      <c r="P193" s="7"/>
+      <c r="Q193" s="7"/>
+      <c r="R193" s="7"/>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K194" s="6"/>
-      <c r="L194" s="6"/>
-      <c r="M194" s="6"/>
-      <c r="N194" s="6"/>
-      <c r="O194" s="6"/>
-      <c r="P194" s="6"/>
-      <c r="Q194" s="6"/>
-      <c r="R194" s="6"/>
+      <c r="K194" s="7"/>
+      <c r="L194" s="7"/>
+      <c r="M194" s="7"/>
+      <c r="N194" s="7"/>
+      <c r="O194" s="7"/>
+      <c r="P194" s="7"/>
+      <c r="Q194" s="7"/>
+      <c r="R194" s="7"/>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K195" s="6"/>
-      <c r="L195" s="6"/>
-      <c r="M195" s="6"/>
-      <c r="N195" s="6"/>
-      <c r="O195" s="6"/>
-      <c r="P195" s="6"/>
-      <c r="Q195" s="6"/>
-      <c r="R195" s="6"/>
+      <c r="K195" s="7"/>
+      <c r="L195" s="7"/>
+      <c r="M195" s="7"/>
+      <c r="N195" s="7"/>
+      <c r="O195" s="7"/>
+      <c r="P195" s="7"/>
+      <c r="Q195" s="7"/>
+      <c r="R195" s="7"/>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K196" s="6"/>
-      <c r="L196" s="6"/>
-      <c r="M196" s="6"/>
-      <c r="N196" s="6"/>
-      <c r="O196" s="6"/>
-      <c r="P196" s="6"/>
-      <c r="Q196" s="6"/>
-      <c r="R196" s="6"/>
+      <c r="K196" s="7"/>
+      <c r="L196" s="7"/>
+      <c r="M196" s="7"/>
+      <c r="N196" s="7"/>
+      <c r="O196" s="7"/>
+      <c r="P196" s="7"/>
+      <c r="Q196" s="7"/>
+      <c r="R196" s="7"/>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K197" s="6"/>
-      <c r="L197" s="6"/>
-      <c r="M197" s="6"/>
-      <c r="N197" s="6"/>
-      <c r="O197" s="6"/>
-      <c r="P197" s="6"/>
-      <c r="Q197" s="6"/>
-      <c r="R197" s="6"/>
+      <c r="K197" s="7"/>
+      <c r="L197" s="7"/>
+      <c r="M197" s="7"/>
+      <c r="N197" s="7"/>
+      <c r="O197" s="7"/>
+      <c r="P197" s="7"/>
+      <c r="Q197" s="7"/>
+      <c r="R197" s="7"/>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K198" s="6"/>
-      <c r="L198" s="6"/>
-      <c r="M198" s="6"/>
-      <c r="N198" s="6"/>
-      <c r="O198" s="6"/>
-      <c r="P198" s="6"/>
-      <c r="Q198" s="6"/>
-      <c r="R198" s="6"/>
+      <c r="K198" s="7"/>
+      <c r="L198" s="7"/>
+      <c r="M198" s="7"/>
+      <c r="N198" s="7"/>
+      <c r="O198" s="7"/>
+      <c r="P198" s="7"/>
+      <c r="Q198" s="7"/>
+      <c r="R198" s="7"/>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K199" s="6"/>
-      <c r="L199" s="6"/>
-      <c r="M199" s="6"/>
-      <c r="N199" s="6"/>
-      <c r="O199" s="6"/>
-      <c r="P199" s="6"/>
-      <c r="Q199" s="6"/>
-      <c r="R199" s="6"/>
+      <c r="K199" s="7"/>
+      <c r="L199" s="7"/>
+      <c r="M199" s="7"/>
+      <c r="N199" s="7"/>
+      <c r="O199" s="7"/>
+      <c r="P199" s="7"/>
+      <c r="Q199" s="7"/>
+      <c r="R199" s="7"/>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K200" s="6"/>
-      <c r="L200" s="6"/>
-      <c r="M200" s="6"/>
-      <c r="N200" s="6"/>
-      <c r="O200" s="6"/>
-      <c r="P200" s="6"/>
-      <c r="Q200" s="6"/>
-      <c r="R200" s="6"/>
+      <c r="K200" s="7"/>
+      <c r="L200" s="7"/>
+      <c r="M200" s="7"/>
+      <c r="N200" s="7"/>
+      <c r="O200" s="7"/>
+      <c r="P200" s="7"/>
+      <c r="Q200" s="7"/>
+      <c r="R200" s="7"/>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A201" s="6" t="s">
+      <c r="A201" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B201" s="6"/>
-      <c r="C201" s="6"/>
-      <c r="D201" s="6"/>
-      <c r="E201" s="6"/>
-      <c r="F201" s="6"/>
-      <c r="G201" s="6"/>
-      <c r="H201" s="6"/>
-      <c r="K201" s="6"/>
-      <c r="L201" s="6"/>
-      <c r="M201" s="6"/>
-      <c r="N201" s="6"/>
-      <c r="O201" s="6"/>
-      <c r="P201" s="6"/>
-      <c r="Q201" s="6"/>
-      <c r="R201" s="6"/>
+      <c r="B201" s="7"/>
+      <c r="C201" s="7"/>
+      <c r="D201" s="7"/>
+      <c r="E201" s="7"/>
+      <c r="F201" s="7"/>
+      <c r="G201" s="7"/>
+      <c r="H201" s="7"/>
+      <c r="K201" s="7"/>
+      <c r="L201" s="7"/>
+      <c r="M201" s="7"/>
+      <c r="N201" s="7"/>
+      <c r="O201" s="7"/>
+      <c r="P201" s="7"/>
+      <c r="Q201" s="7"/>
+      <c r="R201" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="259">
+    <mergeCell ref="A176:H176"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A201:H201"/>
+    <mergeCell ref="K1:R1"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="K3:R3"/>
+    <mergeCell ref="K4:R4"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="K7:R7"/>
+    <mergeCell ref="A71:H71"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A123:H123"/>
+    <mergeCell ref="A149:H149"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="K18:R18"/>
+    <mergeCell ref="K19:R19"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="K9:R9"/>
+    <mergeCell ref="K10:R10"/>
+    <mergeCell ref="K11:R11"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="K26:R26"/>
+    <mergeCell ref="K27:R27"/>
+    <mergeCell ref="K28:R28"/>
+    <mergeCell ref="K29:R29"/>
+    <mergeCell ref="K30:R30"/>
+    <mergeCell ref="K31:R31"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="K25:R25"/>
+    <mergeCell ref="K38:R38"/>
+    <mergeCell ref="K39:R39"/>
+    <mergeCell ref="K40:R40"/>
+    <mergeCell ref="K41:R41"/>
+    <mergeCell ref="K42:R42"/>
+    <mergeCell ref="K43:R43"/>
+    <mergeCell ref="K32:R32"/>
+    <mergeCell ref="K33:R33"/>
+    <mergeCell ref="K34:R34"/>
+    <mergeCell ref="K35:R35"/>
+    <mergeCell ref="K36:R36"/>
+    <mergeCell ref="K37:R37"/>
+    <mergeCell ref="K50:R50"/>
+    <mergeCell ref="K51:R51"/>
+    <mergeCell ref="K52:R52"/>
+    <mergeCell ref="K53:R53"/>
+    <mergeCell ref="K54:R54"/>
+    <mergeCell ref="K55:R55"/>
+    <mergeCell ref="K44:R44"/>
+    <mergeCell ref="K45:R45"/>
+    <mergeCell ref="K46:R46"/>
+    <mergeCell ref="K47:R47"/>
+    <mergeCell ref="K48:R48"/>
+    <mergeCell ref="K49:R49"/>
+    <mergeCell ref="K62:R62"/>
+    <mergeCell ref="K63:R63"/>
+    <mergeCell ref="K64:R64"/>
+    <mergeCell ref="K65:R65"/>
+    <mergeCell ref="K66:R66"/>
+    <mergeCell ref="K67:R67"/>
+    <mergeCell ref="K56:R56"/>
+    <mergeCell ref="K57:R57"/>
+    <mergeCell ref="K58:R58"/>
+    <mergeCell ref="K59:R59"/>
+    <mergeCell ref="K60:R60"/>
+    <mergeCell ref="K61:R61"/>
+    <mergeCell ref="K74:R74"/>
+    <mergeCell ref="K75:R75"/>
+    <mergeCell ref="K76:R76"/>
+    <mergeCell ref="K77:R77"/>
+    <mergeCell ref="K78:R78"/>
+    <mergeCell ref="K79:R79"/>
+    <mergeCell ref="K68:R68"/>
+    <mergeCell ref="K69:R69"/>
+    <mergeCell ref="K70:R70"/>
+    <mergeCell ref="K71:R71"/>
+    <mergeCell ref="K72:R72"/>
+    <mergeCell ref="K73:R73"/>
+    <mergeCell ref="K86:R86"/>
+    <mergeCell ref="K87:R87"/>
+    <mergeCell ref="K88:R88"/>
+    <mergeCell ref="K89:R89"/>
+    <mergeCell ref="K90:R90"/>
+    <mergeCell ref="K91:R91"/>
+    <mergeCell ref="K80:R80"/>
+    <mergeCell ref="K81:R81"/>
+    <mergeCell ref="K82:R82"/>
+    <mergeCell ref="K83:R83"/>
+    <mergeCell ref="K84:R84"/>
+    <mergeCell ref="K85:R85"/>
+    <mergeCell ref="K98:R98"/>
+    <mergeCell ref="K99:R99"/>
+    <mergeCell ref="K100:R100"/>
+    <mergeCell ref="K101:R101"/>
+    <mergeCell ref="K102:R102"/>
+    <mergeCell ref="K103:R103"/>
+    <mergeCell ref="K92:R92"/>
+    <mergeCell ref="K93:R93"/>
+    <mergeCell ref="K94:R94"/>
+    <mergeCell ref="K95:R95"/>
+    <mergeCell ref="K96:R96"/>
+    <mergeCell ref="K97:R97"/>
+    <mergeCell ref="K110:R110"/>
+    <mergeCell ref="K111:R111"/>
+    <mergeCell ref="K112:R112"/>
+    <mergeCell ref="K113:R113"/>
+    <mergeCell ref="K114:R114"/>
+    <mergeCell ref="K115:R115"/>
+    <mergeCell ref="K104:R104"/>
+    <mergeCell ref="K105:R105"/>
+    <mergeCell ref="K106:R106"/>
+    <mergeCell ref="K107:R107"/>
+    <mergeCell ref="K108:R108"/>
+    <mergeCell ref="K109:R109"/>
+    <mergeCell ref="K122:R122"/>
+    <mergeCell ref="K123:R123"/>
+    <mergeCell ref="K124:R124"/>
+    <mergeCell ref="K125:R125"/>
+    <mergeCell ref="K126:R126"/>
+    <mergeCell ref="K127:R127"/>
+    <mergeCell ref="K116:R116"/>
+    <mergeCell ref="K117:R117"/>
+    <mergeCell ref="K118:R118"/>
+    <mergeCell ref="K119:R119"/>
+    <mergeCell ref="K120:R120"/>
+    <mergeCell ref="K121:R121"/>
+    <mergeCell ref="K134:R134"/>
+    <mergeCell ref="K135:R135"/>
+    <mergeCell ref="K136:R136"/>
+    <mergeCell ref="K137:R137"/>
+    <mergeCell ref="K138:R138"/>
+    <mergeCell ref="K139:R139"/>
+    <mergeCell ref="K128:R128"/>
+    <mergeCell ref="K129:R129"/>
+    <mergeCell ref="K130:R130"/>
+    <mergeCell ref="K131:R131"/>
+    <mergeCell ref="K132:R132"/>
+    <mergeCell ref="K133:R133"/>
+    <mergeCell ref="K146:R146"/>
+    <mergeCell ref="K147:R147"/>
+    <mergeCell ref="K148:R148"/>
+    <mergeCell ref="K149:R149"/>
+    <mergeCell ref="K150:R150"/>
+    <mergeCell ref="K151:R151"/>
+    <mergeCell ref="K140:R140"/>
+    <mergeCell ref="K141:R141"/>
+    <mergeCell ref="K142:R142"/>
+    <mergeCell ref="K143:R143"/>
+    <mergeCell ref="K144:R144"/>
+    <mergeCell ref="K145:R145"/>
+    <mergeCell ref="K158:R158"/>
+    <mergeCell ref="K159:R159"/>
+    <mergeCell ref="K160:R160"/>
+    <mergeCell ref="K161:R161"/>
+    <mergeCell ref="K162:R162"/>
+    <mergeCell ref="K163:R163"/>
+    <mergeCell ref="K152:R152"/>
+    <mergeCell ref="K153:R153"/>
+    <mergeCell ref="K154:R154"/>
+    <mergeCell ref="K155:R155"/>
+    <mergeCell ref="K156:R156"/>
+    <mergeCell ref="K157:R157"/>
+    <mergeCell ref="K170:R170"/>
+    <mergeCell ref="K171:R171"/>
+    <mergeCell ref="K172:R172"/>
+    <mergeCell ref="K173:R173"/>
+    <mergeCell ref="K174:R174"/>
+    <mergeCell ref="K175:R175"/>
+    <mergeCell ref="K164:R164"/>
+    <mergeCell ref="K165:R165"/>
+    <mergeCell ref="K166:R166"/>
+    <mergeCell ref="K167:R167"/>
+    <mergeCell ref="K168:R168"/>
+    <mergeCell ref="K169:R169"/>
+    <mergeCell ref="K185:R185"/>
+    <mergeCell ref="K186:R186"/>
+    <mergeCell ref="K187:R187"/>
+    <mergeCell ref="K176:R176"/>
+    <mergeCell ref="K177:R177"/>
+    <mergeCell ref="K178:R178"/>
+    <mergeCell ref="K179:R179"/>
+    <mergeCell ref="K180:R180"/>
+    <mergeCell ref="K181:R181"/>
+    <mergeCell ref="K200:R200"/>
+    <mergeCell ref="K201:R201"/>
+    <mergeCell ref="T1:AA1"/>
+    <mergeCell ref="T2:AA2"/>
+    <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="T30:AA30"/>
+    <mergeCell ref="T31:AA31"/>
+    <mergeCell ref="T29:AA29"/>
+    <mergeCell ref="T57:AA57"/>
+    <mergeCell ref="K194:R194"/>
+    <mergeCell ref="K195:R195"/>
+    <mergeCell ref="K196:R196"/>
+    <mergeCell ref="K197:R197"/>
+    <mergeCell ref="K198:R198"/>
+    <mergeCell ref="K199:R199"/>
+    <mergeCell ref="K188:R188"/>
+    <mergeCell ref="K189:R189"/>
+    <mergeCell ref="K190:R190"/>
+    <mergeCell ref="K191:R191"/>
+    <mergeCell ref="K192:R192"/>
+    <mergeCell ref="K193:R193"/>
+    <mergeCell ref="K182:R182"/>
+    <mergeCell ref="K183:R183"/>
+    <mergeCell ref="K184:R184"/>
+    <mergeCell ref="AC84:AJ84"/>
+    <mergeCell ref="T113:AA113"/>
+    <mergeCell ref="T114:AA114"/>
+    <mergeCell ref="T140:AA140"/>
+    <mergeCell ref="T141:AA141"/>
+    <mergeCell ref="T142:AA142"/>
+    <mergeCell ref="AC1:AJ1"/>
+    <mergeCell ref="AC2:AJ2"/>
+    <mergeCell ref="AC3:AJ3"/>
+    <mergeCell ref="AC29:AJ29"/>
+    <mergeCell ref="AC30:AJ30"/>
+    <mergeCell ref="T58:AA58"/>
+    <mergeCell ref="T59:AA59"/>
+    <mergeCell ref="T85:AA85"/>
+    <mergeCell ref="T86:AA86"/>
+    <mergeCell ref="T87:AA87"/>
+    <mergeCell ref="T112:AA112"/>
     <mergeCell ref="AM28:AT28"/>
     <mergeCell ref="AM40:AT40"/>
     <mergeCell ref="AM41:AT41"/>
@@ -6262,241 +6649,6 @@
     <mergeCell ref="AC57:AJ57"/>
     <mergeCell ref="AC58:AJ58"/>
     <mergeCell ref="AC83:AJ83"/>
-    <mergeCell ref="AC84:AJ84"/>
-    <mergeCell ref="T113:AA113"/>
-    <mergeCell ref="T114:AA114"/>
-    <mergeCell ref="T140:AA140"/>
-    <mergeCell ref="T141:AA141"/>
-    <mergeCell ref="T142:AA142"/>
-    <mergeCell ref="AC1:AJ1"/>
-    <mergeCell ref="AC2:AJ2"/>
-    <mergeCell ref="AC3:AJ3"/>
-    <mergeCell ref="AC29:AJ29"/>
-    <mergeCell ref="AC30:AJ30"/>
-    <mergeCell ref="T58:AA58"/>
-    <mergeCell ref="T59:AA59"/>
-    <mergeCell ref="T85:AA85"/>
-    <mergeCell ref="T86:AA86"/>
-    <mergeCell ref="T87:AA87"/>
-    <mergeCell ref="T112:AA112"/>
-    <mergeCell ref="K200:R200"/>
-    <mergeCell ref="K201:R201"/>
-    <mergeCell ref="T1:AA1"/>
-    <mergeCell ref="T2:AA2"/>
-    <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="T30:AA30"/>
-    <mergeCell ref="T31:AA31"/>
-    <mergeCell ref="T29:AA29"/>
-    <mergeCell ref="T57:AA57"/>
-    <mergeCell ref="K194:R194"/>
-    <mergeCell ref="K195:R195"/>
-    <mergeCell ref="K196:R196"/>
-    <mergeCell ref="K197:R197"/>
-    <mergeCell ref="K198:R198"/>
-    <mergeCell ref="K199:R199"/>
-    <mergeCell ref="K188:R188"/>
-    <mergeCell ref="K189:R189"/>
-    <mergeCell ref="K190:R190"/>
-    <mergeCell ref="K191:R191"/>
-    <mergeCell ref="K192:R192"/>
-    <mergeCell ref="K193:R193"/>
-    <mergeCell ref="K182:R182"/>
-    <mergeCell ref="K183:R183"/>
-    <mergeCell ref="K184:R184"/>
-    <mergeCell ref="K185:R185"/>
-    <mergeCell ref="K186:R186"/>
-    <mergeCell ref="K187:R187"/>
-    <mergeCell ref="K176:R176"/>
-    <mergeCell ref="K177:R177"/>
-    <mergeCell ref="K178:R178"/>
-    <mergeCell ref="K179:R179"/>
-    <mergeCell ref="K180:R180"/>
-    <mergeCell ref="K181:R181"/>
-    <mergeCell ref="K170:R170"/>
-    <mergeCell ref="K171:R171"/>
-    <mergeCell ref="K172:R172"/>
-    <mergeCell ref="K173:R173"/>
-    <mergeCell ref="K174:R174"/>
-    <mergeCell ref="K175:R175"/>
-    <mergeCell ref="K164:R164"/>
-    <mergeCell ref="K165:R165"/>
-    <mergeCell ref="K166:R166"/>
-    <mergeCell ref="K167:R167"/>
-    <mergeCell ref="K168:R168"/>
-    <mergeCell ref="K169:R169"/>
-    <mergeCell ref="K158:R158"/>
-    <mergeCell ref="K159:R159"/>
-    <mergeCell ref="K160:R160"/>
-    <mergeCell ref="K161:R161"/>
-    <mergeCell ref="K162:R162"/>
-    <mergeCell ref="K163:R163"/>
-    <mergeCell ref="K152:R152"/>
-    <mergeCell ref="K153:R153"/>
-    <mergeCell ref="K154:R154"/>
-    <mergeCell ref="K155:R155"/>
-    <mergeCell ref="K156:R156"/>
-    <mergeCell ref="K157:R157"/>
-    <mergeCell ref="K146:R146"/>
-    <mergeCell ref="K147:R147"/>
-    <mergeCell ref="K148:R148"/>
-    <mergeCell ref="K149:R149"/>
-    <mergeCell ref="K150:R150"/>
-    <mergeCell ref="K151:R151"/>
-    <mergeCell ref="K140:R140"/>
-    <mergeCell ref="K141:R141"/>
-    <mergeCell ref="K142:R142"/>
-    <mergeCell ref="K143:R143"/>
-    <mergeCell ref="K144:R144"/>
-    <mergeCell ref="K145:R145"/>
-    <mergeCell ref="K134:R134"/>
-    <mergeCell ref="K135:R135"/>
-    <mergeCell ref="K136:R136"/>
-    <mergeCell ref="K137:R137"/>
-    <mergeCell ref="K138:R138"/>
-    <mergeCell ref="K139:R139"/>
-    <mergeCell ref="K128:R128"/>
-    <mergeCell ref="K129:R129"/>
-    <mergeCell ref="K130:R130"/>
-    <mergeCell ref="K131:R131"/>
-    <mergeCell ref="K132:R132"/>
-    <mergeCell ref="K133:R133"/>
-    <mergeCell ref="K122:R122"/>
-    <mergeCell ref="K123:R123"/>
-    <mergeCell ref="K124:R124"/>
-    <mergeCell ref="K125:R125"/>
-    <mergeCell ref="K126:R126"/>
-    <mergeCell ref="K127:R127"/>
-    <mergeCell ref="K116:R116"/>
-    <mergeCell ref="K117:R117"/>
-    <mergeCell ref="K118:R118"/>
-    <mergeCell ref="K119:R119"/>
-    <mergeCell ref="K120:R120"/>
-    <mergeCell ref="K121:R121"/>
-    <mergeCell ref="K110:R110"/>
-    <mergeCell ref="K111:R111"/>
-    <mergeCell ref="K112:R112"/>
-    <mergeCell ref="K113:R113"/>
-    <mergeCell ref="K114:R114"/>
-    <mergeCell ref="K115:R115"/>
-    <mergeCell ref="K104:R104"/>
-    <mergeCell ref="K105:R105"/>
-    <mergeCell ref="K106:R106"/>
-    <mergeCell ref="K107:R107"/>
-    <mergeCell ref="K108:R108"/>
-    <mergeCell ref="K109:R109"/>
-    <mergeCell ref="K98:R98"/>
-    <mergeCell ref="K99:R99"/>
-    <mergeCell ref="K100:R100"/>
-    <mergeCell ref="K101:R101"/>
-    <mergeCell ref="K102:R102"/>
-    <mergeCell ref="K103:R103"/>
-    <mergeCell ref="K92:R92"/>
-    <mergeCell ref="K93:R93"/>
-    <mergeCell ref="K94:R94"/>
-    <mergeCell ref="K95:R95"/>
-    <mergeCell ref="K96:R96"/>
-    <mergeCell ref="K97:R97"/>
-    <mergeCell ref="K86:R86"/>
-    <mergeCell ref="K87:R87"/>
-    <mergeCell ref="K88:R88"/>
-    <mergeCell ref="K89:R89"/>
-    <mergeCell ref="K90:R90"/>
-    <mergeCell ref="K91:R91"/>
-    <mergeCell ref="K80:R80"/>
-    <mergeCell ref="K81:R81"/>
-    <mergeCell ref="K82:R82"/>
-    <mergeCell ref="K83:R83"/>
-    <mergeCell ref="K84:R84"/>
-    <mergeCell ref="K85:R85"/>
-    <mergeCell ref="K74:R74"/>
-    <mergeCell ref="K75:R75"/>
-    <mergeCell ref="K76:R76"/>
-    <mergeCell ref="K77:R77"/>
-    <mergeCell ref="K78:R78"/>
-    <mergeCell ref="K79:R79"/>
-    <mergeCell ref="K68:R68"/>
-    <mergeCell ref="K69:R69"/>
-    <mergeCell ref="K70:R70"/>
-    <mergeCell ref="K71:R71"/>
-    <mergeCell ref="K72:R72"/>
-    <mergeCell ref="K73:R73"/>
-    <mergeCell ref="K62:R62"/>
-    <mergeCell ref="K63:R63"/>
-    <mergeCell ref="K64:R64"/>
-    <mergeCell ref="K65:R65"/>
-    <mergeCell ref="K66:R66"/>
-    <mergeCell ref="K67:R67"/>
-    <mergeCell ref="K56:R56"/>
-    <mergeCell ref="K57:R57"/>
-    <mergeCell ref="K58:R58"/>
-    <mergeCell ref="K59:R59"/>
-    <mergeCell ref="K60:R60"/>
-    <mergeCell ref="K61:R61"/>
-    <mergeCell ref="K50:R50"/>
-    <mergeCell ref="K51:R51"/>
-    <mergeCell ref="K52:R52"/>
-    <mergeCell ref="K53:R53"/>
-    <mergeCell ref="K54:R54"/>
-    <mergeCell ref="K55:R55"/>
-    <mergeCell ref="K44:R44"/>
-    <mergeCell ref="K45:R45"/>
-    <mergeCell ref="K46:R46"/>
-    <mergeCell ref="K47:R47"/>
-    <mergeCell ref="K48:R48"/>
-    <mergeCell ref="K49:R49"/>
-    <mergeCell ref="K38:R38"/>
-    <mergeCell ref="K39:R39"/>
-    <mergeCell ref="K40:R40"/>
-    <mergeCell ref="K41:R41"/>
-    <mergeCell ref="K42:R42"/>
-    <mergeCell ref="K43:R43"/>
-    <mergeCell ref="K32:R32"/>
-    <mergeCell ref="K33:R33"/>
-    <mergeCell ref="K34:R34"/>
-    <mergeCell ref="K35:R35"/>
-    <mergeCell ref="K36:R36"/>
-    <mergeCell ref="K37:R37"/>
-    <mergeCell ref="K26:R26"/>
-    <mergeCell ref="K27:R27"/>
-    <mergeCell ref="K28:R28"/>
-    <mergeCell ref="K29:R29"/>
-    <mergeCell ref="K30:R30"/>
-    <mergeCell ref="K31:R31"/>
-    <mergeCell ref="K20:R20"/>
-    <mergeCell ref="K21:R21"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="K23:R23"/>
-    <mergeCell ref="K24:R24"/>
-    <mergeCell ref="K25:R25"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="K15:R15"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="K18:R18"/>
-    <mergeCell ref="K19:R19"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="K9:R9"/>
-    <mergeCell ref="K10:R10"/>
-    <mergeCell ref="K11:R11"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="A176:H176"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A201:H201"/>
-    <mergeCell ref="K1:R1"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="K3:R3"/>
-    <mergeCell ref="K4:R4"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="K6:R6"/>
-    <mergeCell ref="K7:R7"/>
-    <mergeCell ref="A71:H71"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A123:H123"/>
-    <mergeCell ref="A149:H149"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A45:H45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6514,100 +6666,100 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="S1" s="6" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="S1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="J2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="S2" s="5" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="S2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="5" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="J3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="S3" s="5" t="s">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="S3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6630,47 +6782,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
